--- a/BackTest/2020-01-19 BackTest XVG.xlsx
+++ b/BackTest/2020-01-19 BackTest XVG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M106"/>
+  <dimension ref="A1:N106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1049,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1084,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1119,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1154,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1189,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1224,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1259,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1294,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1329,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1364,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1504,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1539,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1574,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1679,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1792,6 +1835,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1827,6 +1871,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1854,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1862,6 +1907,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1889,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1897,6 +1943,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1932,6 +1979,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1967,6 +2015,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2002,6 +2051,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2037,6 +2087,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2072,6 +2123,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2107,6 +2159,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2142,6 +2195,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2177,6 +2231,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2212,6 +2267,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2247,6 +2303,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2282,6 +2339,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2317,6 +2375,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2352,6 +2411,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2391,6 +2451,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2432,6 +2493,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2475,6 +2537,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2510,6 +2573,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2549,6 +2613,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2592,6 +2657,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2635,6 +2701,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2670,6 +2737,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2705,6 +2773,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2740,6 +2809,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2775,6 +2845,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2810,6 +2881,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2845,6 +2917,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2880,6 +2953,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2915,6 +2989,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2950,6 +3025,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2985,6 +3061,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3020,6 +3097,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3055,6 +3133,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3090,6 +3169,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3125,6 +3205,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3160,6 +3241,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3195,6 +3277,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3230,6 +3313,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3265,6 +3349,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3300,6 +3385,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3335,6 +3421,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3370,6 +3457,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3409,6 +3497,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3450,6 +3539,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3491,6 +3581,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3532,6 +3623,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3573,6 +3665,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3614,6 +3707,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3655,6 +3749,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3696,6 +3791,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3737,6 +3833,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3778,6 +3875,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3819,6 +3917,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3860,6 +3959,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3901,6 +4001,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3942,6 +4043,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3983,6 +4085,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4024,6 +4127,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4065,6 +4169,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4106,6 +4211,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4147,6 +4253,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4188,6 +4295,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4229,6 +4337,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4270,6 +4379,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-19 BackTest XVG.xlsx
+++ b/BackTest/2020-01-19 BackTest XVG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N106"/>
+  <dimension ref="A1:N135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.49</v>
+        <v>4.495</v>
       </c>
       <c r="C2" t="n">
-        <v>4.48</v>
+        <v>4.495</v>
       </c>
       <c r="D2" t="n">
-        <v>4.49</v>
+        <v>4.495</v>
       </c>
       <c r="E2" t="n">
-        <v>4.48</v>
+        <v>4.495</v>
       </c>
       <c r="F2" t="n">
-        <v>22438.857</v>
+        <v>96280</v>
       </c>
       <c r="G2" t="n">
-        <v>-1813119.86378515</v>
+        <v>-271177.5985</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.48</v>
+        <v>4.505</v>
       </c>
       <c r="C3" t="n">
-        <v>4.52</v>
+        <v>4.505</v>
       </c>
       <c r="D3" t="n">
-        <v>4.52</v>
+        <v>4.505</v>
       </c>
       <c r="E3" t="n">
-        <v>4.476</v>
+        <v>4.505</v>
       </c>
       <c r="F3" t="n">
-        <v>18087.3738</v>
+        <v>240640.7137</v>
       </c>
       <c r="G3" t="n">
-        <v>-1795032.48998515</v>
+        <v>-30536.88479999997</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.476</v>
+        <v>4.52</v>
       </c>
       <c r="C4" t="n">
-        <v>4.463</v>
+        <v>4.52</v>
       </c>
       <c r="D4" t="n">
-        <v>4.476</v>
+        <v>4.52</v>
       </c>
       <c r="E4" t="n">
-        <v>4.463</v>
+        <v>4.52</v>
       </c>
       <c r="F4" t="n">
-        <v>409642.9148</v>
+        <v>5000</v>
       </c>
       <c r="G4" t="n">
-        <v>-2204675.40478515</v>
+        <v>-25536.88479999997</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.495</v>
+        <v>4.52</v>
       </c>
       <c r="C5" t="n">
-        <v>4.517</v>
+        <v>4.522</v>
       </c>
       <c r="D5" t="n">
-        <v>4.517</v>
+        <v>4.522</v>
       </c>
       <c r="E5" t="n">
-        <v>4.495</v>
+        <v>4.52</v>
       </c>
       <c r="F5" t="n">
-        <v>933773.5735000001</v>
+        <v>5110.5706</v>
       </c>
       <c r="G5" t="n">
-        <v>-1270901.83128515</v>
+        <v>-20426.31419999997</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.463</v>
+        <v>4.521</v>
       </c>
       <c r="C6" t="n">
-        <v>4.462</v>
+        <v>4.521</v>
       </c>
       <c r="D6" t="n">
-        <v>4.463</v>
+        <v>4.521</v>
       </c>
       <c r="E6" t="n">
-        <v>4.462</v>
+        <v>4.521</v>
       </c>
       <c r="F6" t="n">
-        <v>216994.7571</v>
+        <v>2500</v>
       </c>
       <c r="G6" t="n">
-        <v>-1487896.58838515</v>
+        <v>-22926.31419999997</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.515</v>
+        <v>4.524</v>
       </c>
       <c r="C7" t="n">
-        <v>4.515</v>
+        <v>4.524</v>
       </c>
       <c r="D7" t="n">
-        <v>4.515</v>
+        <v>4.524</v>
       </c>
       <c r="E7" t="n">
-        <v>4.515</v>
+        <v>4.524</v>
       </c>
       <c r="F7" t="n">
-        <v>112</v>
+        <v>2500</v>
       </c>
       <c r="G7" t="n">
-        <v>-1487784.58838515</v>
+        <v>-20426.31419999997</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.515</v>
+        <v>4.5</v>
       </c>
       <c r="C8" t="n">
-        <v>4.515</v>
+        <v>4.476</v>
       </c>
       <c r="D8" t="n">
-        <v>4.515</v>
+        <v>4.5</v>
       </c>
       <c r="E8" t="n">
-        <v>4.515</v>
+        <v>4.476</v>
       </c>
       <c r="F8" t="n">
-        <v>168661.6999</v>
+        <v>78000</v>
       </c>
       <c r="G8" t="n">
-        <v>-1487784.58838515</v>
+        <v>-98426.31419999996</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.518</v>
+        <v>4.485</v>
       </c>
       <c r="C9" t="n">
-        <v>4.518</v>
+        <v>4.513</v>
       </c>
       <c r="D9" t="n">
-        <v>4.518</v>
+        <v>4.513</v>
       </c>
       <c r="E9" t="n">
-        <v>4.518</v>
+        <v>4.485</v>
       </c>
       <c r="F9" t="n">
-        <v>41039.8841</v>
+        <v>5110.7911</v>
       </c>
       <c r="G9" t="n">
-        <v>-1446744.70428515</v>
+        <v>-93315.52309999996</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.533</v>
+        <v>4.491</v>
       </c>
       <c r="C10" t="n">
-        <v>4.533</v>
+        <v>4.512</v>
       </c>
       <c r="D10" t="n">
-        <v>4.533</v>
+        <v>4.522</v>
       </c>
       <c r="E10" t="n">
-        <v>4.533</v>
+        <v>4.491</v>
       </c>
       <c r="F10" t="n">
-        <v>38858.8764</v>
+        <v>624569.441</v>
       </c>
       <c r="G10" t="n">
-        <v>-1407885.82788515</v>
+        <v>-717884.9641</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.534</v>
+        <v>4.512</v>
       </c>
       <c r="C11" t="n">
-        <v>4.534</v>
+        <v>4.512</v>
       </c>
       <c r="D11" t="n">
-        <v>4.534</v>
+        <v>4.512</v>
       </c>
       <c r="E11" t="n">
-        <v>4.534</v>
+        <v>4.512</v>
       </c>
       <c r="F11" t="n">
-        <v>36915.9326</v>
+        <v>5269.1232</v>
       </c>
       <c r="G11" t="n">
-        <v>-1370969.895285151</v>
+        <v>-717884.9641</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.532</v>
+        <v>4.49</v>
       </c>
       <c r="C12" t="n">
-        <v>4.532</v>
+        <v>4.47</v>
       </c>
       <c r="D12" t="n">
-        <v>4.532</v>
+        <v>4.49</v>
       </c>
       <c r="E12" t="n">
-        <v>4.532</v>
+        <v>4.47</v>
       </c>
       <c r="F12" t="n">
-        <v>35077.467</v>
+        <v>624569.4409</v>
       </c>
       <c r="G12" t="n">
-        <v>-1406047.36228515</v>
+        <v>-1342454.405</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.515</v>
+        <v>4.47</v>
       </c>
       <c r="C13" t="n">
         <v>4.515</v>
@@ -843,13 +843,13 @@
         <v>4.515</v>
       </c>
       <c r="E13" t="n">
-        <v>4.515</v>
+        <v>4.47</v>
       </c>
       <c r="F13" t="n">
-        <v>25635.9999</v>
+        <v>111.8569</v>
       </c>
       <c r="G13" t="n">
-        <v>-1431683.36218515</v>
+        <v>-1342342.5481</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.533</v>
+        <v>4.515</v>
       </c>
       <c r="C14" t="n">
-        <v>4.533</v>
+        <v>4.515</v>
       </c>
       <c r="D14" t="n">
-        <v>4.533</v>
+        <v>4.515</v>
       </c>
       <c r="E14" t="n">
-        <v>4.533</v>
+        <v>4.515</v>
       </c>
       <c r="F14" t="n">
-        <v>33316.2422</v>
+        <v>2500</v>
       </c>
       <c r="G14" t="n">
-        <v>-1398367.11998515</v>
+        <v>-1342342.5481</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.534</v>
+        <v>4.525</v>
       </c>
       <c r="C15" t="n">
-        <v>4.534</v>
+        <v>4.525</v>
       </c>
       <c r="D15" t="n">
-        <v>4.534</v>
+        <v>4.525</v>
       </c>
       <c r="E15" t="n">
-        <v>4.534</v>
+        <v>4.525</v>
       </c>
       <c r="F15" t="n">
-        <v>31643.4494</v>
+        <v>2500</v>
       </c>
       <c r="G15" t="n">
-        <v>-1366723.67058515</v>
+        <v>-1339842.5481</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,28 +942,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.535</v>
+        <v>4.51</v>
       </c>
       <c r="C16" t="n">
-        <v>4.54</v>
+        <v>4.49</v>
       </c>
       <c r="D16" t="n">
-        <v>4.54</v>
+        <v>4.51</v>
       </c>
       <c r="E16" t="n">
-        <v>4.535</v>
+        <v>4.49</v>
       </c>
       <c r="F16" t="n">
-        <v>12780.8370044</v>
+        <v>8002.9999</v>
       </c>
       <c r="G16" t="n">
-        <v>-1353942.83358075</v>
+        <v>-1347845.548</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.516</v>
+        <v>4.525</v>
       </c>
       <c r="C17" t="n">
-        <v>4.55</v>
+        <v>4.525</v>
       </c>
       <c r="D17" t="n">
-        <v>4.55</v>
+        <v>4.525</v>
       </c>
       <c r="E17" t="n">
-        <v>4.516</v>
+        <v>4.525</v>
       </c>
       <c r="F17" t="n">
-        <v>16816.1759</v>
+        <v>110.4973</v>
       </c>
       <c r="G17" t="n">
-        <v>-1337126.65768075</v>
+        <v>-1347735.0507</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.55</v>
+        <v>4.525</v>
       </c>
       <c r="C18" t="n">
-        <v>4.55</v>
+        <v>4.525</v>
       </c>
       <c r="D18" t="n">
-        <v>4.55</v>
+        <v>4.525</v>
       </c>
       <c r="E18" t="n">
-        <v>4.55</v>
+        <v>4.525</v>
       </c>
       <c r="F18" t="n">
-        <v>24796.2554956</v>
+        <v>2500</v>
       </c>
       <c r="G18" t="n">
-        <v>-1337126.65768075</v>
+        <v>-1347735.0507</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,28 +1050,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.55</v>
+        <v>4.525</v>
       </c>
       <c r="C19" t="n">
-        <v>4.551</v>
+        <v>4.527</v>
       </c>
       <c r="D19" t="n">
-        <v>4.551</v>
+        <v>4.527</v>
       </c>
       <c r="E19" t="n">
-        <v>4.54</v>
+        <v>4.525</v>
       </c>
       <c r="F19" t="n">
-        <v>46112.7988</v>
+        <v>65808.5027</v>
       </c>
       <c r="G19" t="n">
-        <v>-1291013.85888075</v>
+        <v>-1281926.548</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1086,28 +1086,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.551</v>
+        <v>4.525</v>
       </c>
       <c r="C20" t="n">
-        <v>4.551</v>
+        <v>4.525</v>
       </c>
       <c r="D20" t="n">
-        <v>4.551</v>
+        <v>4.525</v>
       </c>
       <c r="E20" t="n">
-        <v>4.551</v>
+        <v>4.525</v>
       </c>
       <c r="F20" t="n">
-        <v>30000</v>
+        <v>7381.2836</v>
       </c>
       <c r="G20" t="n">
-        <v>-1291013.85888075</v>
+        <v>-1289307.8316</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1122,28 +1122,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.55</v>
+        <v>4.527</v>
       </c>
       <c r="C21" t="n">
-        <v>4.535</v>
+        <v>4.527</v>
       </c>
       <c r="D21" t="n">
-        <v>4.55</v>
+        <v>4.527</v>
       </c>
       <c r="E21" t="n">
-        <v>4.535</v>
+        <v>4.527</v>
       </c>
       <c r="F21" t="n">
-        <v>20000</v>
+        <v>110.4485</v>
       </c>
       <c r="G21" t="n">
-        <v>-1311013.85888075</v>
+        <v>-1289197.3831</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="C22" t="n">
-        <v>4.55</v>
+        <v>4.536</v>
       </c>
       <c r="D22" t="n">
-        <v>4.55</v>
+        <v>4.536</v>
       </c>
       <c r="E22" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="F22" t="n">
-        <v>109.8902</v>
+        <v>7028.3853</v>
       </c>
       <c r="G22" t="n">
-        <v>-1310903.96868075</v>
+        <v>-1282168.9978</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,28 +1194,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.55</v>
+        <v>4.535</v>
       </c>
       <c r="C23" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="D23" t="n">
-        <v>4.55</v>
+        <v>4.535</v>
       </c>
       <c r="E23" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="F23" t="n">
-        <v>5000</v>
+        <v>12498</v>
       </c>
       <c r="G23" t="n">
-        <v>-1310903.96868075</v>
+        <v>-1294666.9978</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1230,28 +1230,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.545</v>
+        <v>4.534</v>
       </c>
       <c r="C24" t="n">
-        <v>4.535</v>
+        <v>4.534</v>
       </c>
       <c r="D24" t="n">
-        <v>4.545</v>
+        <v>4.534</v>
       </c>
       <c r="E24" t="n">
-        <v>4.535</v>
+        <v>4.534</v>
       </c>
       <c r="F24" t="n">
-        <v>31349</v>
+        <v>111</v>
       </c>
       <c r="G24" t="n">
-        <v>-1342252.96868075</v>
+        <v>-1294555.9978</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.545</v>
+        <v>4.5</v>
       </c>
       <c r="C25" t="n">
-        <v>4.545</v>
+        <v>4.49</v>
       </c>
       <c r="D25" t="n">
-        <v>4.545</v>
+        <v>4.5</v>
       </c>
       <c r="E25" t="n">
-        <v>4.545</v>
+        <v>4.49</v>
       </c>
       <c r="F25" t="n">
-        <v>120000</v>
+        <v>120288.6991</v>
       </c>
       <c r="G25" t="n">
-        <v>-1222252.96868075</v>
+        <v>-1414844.6969</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,32 +1302,38 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.535</v>
+        <v>4.531</v>
       </c>
       <c r="C26" t="n">
-        <v>4.535</v>
+        <v>4.53</v>
       </c>
       <c r="D26" t="n">
-        <v>4.535</v>
+        <v>4.531</v>
       </c>
       <c r="E26" t="n">
-        <v>4.535</v>
+        <v>4.49</v>
       </c>
       <c r="F26" t="n">
-        <v>54803.4412</v>
+        <v>27285.6836</v>
       </c>
       <c r="G26" t="n">
-        <v>-1277056.40988075</v>
+        <v>-1387559.0133</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>4.49</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,22 +1344,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.535</v>
+        <v>4.528</v>
       </c>
       <c r="C27" t="n">
-        <v>4.535</v>
+        <v>4.528</v>
       </c>
       <c r="D27" t="n">
-        <v>4.535</v>
+        <v>4.528</v>
       </c>
       <c r="E27" t="n">
-        <v>4.535</v>
+        <v>4.528</v>
       </c>
       <c r="F27" t="n">
-        <v>35729</v>
+        <v>400000</v>
       </c>
       <c r="G27" t="n">
-        <v>-1277056.40988075</v>
+        <v>-1787559.0133</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1363,7 +1369,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,22 +1384,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.55</v>
+        <v>4.529</v>
       </c>
       <c r="C28" t="n">
-        <v>4.55</v>
+        <v>4.529</v>
       </c>
       <c r="D28" t="n">
-        <v>4.55</v>
+        <v>4.529</v>
       </c>
       <c r="E28" t="n">
-        <v>4.55</v>
+        <v>4.529</v>
       </c>
       <c r="F28" t="n">
-        <v>103816.6864</v>
+        <v>102000</v>
       </c>
       <c r="G28" t="n">
-        <v>-1173239.72348075</v>
+        <v>-1685559.0133</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1399,7 +1409,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,22 +1424,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.551</v>
+        <v>4.524</v>
       </c>
       <c r="C29" t="n">
-        <v>4.551</v>
+        <v>4.525</v>
       </c>
       <c r="D29" t="n">
-        <v>4.551</v>
+        <v>4.525</v>
       </c>
       <c r="E29" t="n">
-        <v>4.551</v>
+        <v>4.524</v>
       </c>
       <c r="F29" t="n">
-        <v>61502.8634</v>
+        <v>23700.59176064</v>
       </c>
       <c r="G29" t="n">
-        <v>-1111736.86008075</v>
+        <v>-1709259.60506064</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1435,7 +1449,11 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1446,22 +1464,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.55</v>
+        <v>4.523</v>
       </c>
       <c r="C30" t="n">
-        <v>4.55</v>
+        <v>4.523</v>
       </c>
       <c r="D30" t="n">
-        <v>4.55</v>
+        <v>4.523</v>
       </c>
       <c r="E30" t="n">
-        <v>4.55</v>
+        <v>4.523</v>
       </c>
       <c r="F30" t="n">
-        <v>1129.0152</v>
+        <v>81421.40172451</v>
       </c>
       <c r="G30" t="n">
-        <v>-1112865.87528075</v>
+        <v>-1790681.00678515</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1471,7 +1489,11 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,22 +1504,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.535</v>
+        <v>4.49</v>
       </c>
       <c r="C31" t="n">
-        <v>4.525</v>
+        <v>4.48</v>
       </c>
       <c r="D31" t="n">
-        <v>4.535</v>
+        <v>4.49</v>
       </c>
       <c r="E31" t="n">
-        <v>4.525</v>
+        <v>4.48</v>
       </c>
       <c r="F31" t="n">
-        <v>25636</v>
+        <v>22438.857</v>
       </c>
       <c r="G31" t="n">
-        <v>-1138501.87528075</v>
+        <v>-1813119.86378515</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1507,7 +1529,11 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1518,32 +1544,38 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.549</v>
+        <v>4.48</v>
       </c>
       <c r="C32" t="n">
-        <v>4.549</v>
+        <v>4.52</v>
       </c>
       <c r="D32" t="n">
-        <v>4.549</v>
+        <v>4.52</v>
       </c>
       <c r="E32" t="n">
-        <v>4.549</v>
+        <v>4.476</v>
       </c>
       <c r="F32" t="n">
-        <v>110</v>
+        <v>18087.3738</v>
       </c>
       <c r="G32" t="n">
-        <v>-1138391.87528075</v>
+        <v>-1795032.48998515</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>4.48</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,32 +1586,38 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.549</v>
+        <v>4.476</v>
       </c>
       <c r="C33" t="n">
-        <v>4.554</v>
+        <v>4.463</v>
       </c>
       <c r="D33" t="n">
-        <v>4.554</v>
+        <v>4.476</v>
       </c>
       <c r="E33" t="n">
-        <v>4.515</v>
+        <v>4.463</v>
       </c>
       <c r="F33" t="n">
-        <v>23573.2159</v>
+        <v>409642.9148</v>
       </c>
       <c r="G33" t="n">
-        <v>-1114818.65938075</v>
+        <v>-2204675.40478515</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>4.52</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,32 +1628,38 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.565</v>
+        <v>4.495</v>
       </c>
       <c r="C34" t="n">
-        <v>4.567</v>
+        <v>4.517</v>
       </c>
       <c r="D34" t="n">
-        <v>4.567</v>
+        <v>4.517</v>
       </c>
       <c r="E34" t="n">
-        <v>4.5</v>
+        <v>4.495</v>
       </c>
       <c r="F34" t="n">
-        <v>30147.8643</v>
+        <v>933773.5735000001</v>
       </c>
       <c r="G34" t="n">
-        <v>-1084670.79508075</v>
+        <v>-1270901.83128515</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>4.463</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1626,22 +1670,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.566</v>
+        <v>4.463</v>
       </c>
       <c r="C35" t="n">
-        <v>4.567</v>
+        <v>4.462</v>
       </c>
       <c r="D35" t="n">
-        <v>4.567</v>
+        <v>4.463</v>
       </c>
       <c r="E35" t="n">
-        <v>4.566</v>
+        <v>4.462</v>
       </c>
       <c r="F35" t="n">
-        <v>1532.7349</v>
+        <v>216994.7571</v>
       </c>
       <c r="G35" t="n">
-        <v>-1084670.79508075</v>
+        <v>-1487896.58838515</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1651,7 +1695,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1662,32 +1710,38 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.491</v>
+        <v>4.515</v>
       </c>
       <c r="C36" t="n">
-        <v>4.491</v>
+        <v>4.515</v>
       </c>
       <c r="D36" t="n">
-        <v>4.491</v>
+        <v>4.515</v>
       </c>
       <c r="E36" t="n">
-        <v>4.491</v>
+        <v>4.515</v>
       </c>
       <c r="F36" t="n">
-        <v>41286.4111</v>
+        <v>112</v>
       </c>
       <c r="G36" t="n">
-        <v>-1125957.20618075</v>
+        <v>-1487784.58838515</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>4.462</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1698,22 +1752,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.566</v>
+        <v>4.515</v>
       </c>
       <c r="C37" t="n">
-        <v>4.566</v>
+        <v>4.515</v>
       </c>
       <c r="D37" t="n">
-        <v>4.566</v>
+        <v>4.515</v>
       </c>
       <c r="E37" t="n">
-        <v>4.566</v>
+        <v>4.515</v>
       </c>
       <c r="F37" t="n">
-        <v>110</v>
+        <v>168661.6999</v>
       </c>
       <c r="G37" t="n">
-        <v>-1125847.20618075</v>
+        <v>-1487784.58838515</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1723,10 +1777,12 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
@@ -1734,22 +1790,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.491</v>
+        <v>4.518</v>
       </c>
       <c r="C38" t="n">
-        <v>4.566</v>
+        <v>4.518</v>
       </c>
       <c r="D38" t="n">
-        <v>4.566</v>
+        <v>4.518</v>
       </c>
       <c r="E38" t="n">
-        <v>4.491</v>
+        <v>4.518</v>
       </c>
       <c r="F38" t="n">
-        <v>41019.93108738</v>
+        <v>41039.8841</v>
       </c>
       <c r="G38" t="n">
-        <v>-1125847.20618075</v>
+        <v>-1446744.70428515</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1758,8 +1814,14 @@
         <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>4.462</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1770,28 +1832,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.492</v>
+        <v>4.533</v>
       </c>
       <c r="C39" t="n">
-        <v>4.492</v>
+        <v>4.533</v>
       </c>
       <c r="D39" t="n">
-        <v>4.492</v>
+        <v>4.533</v>
       </c>
       <c r="E39" t="n">
-        <v>4.492</v>
+        <v>4.533</v>
       </c>
       <c r="F39" t="n">
-        <v>7445</v>
+        <v>38858.8764</v>
       </c>
       <c r="G39" t="n">
-        <v>-1133292.20618075</v>
+        <v>-1407885.82788515</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1806,28 +1868,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.56</v>
+        <v>4.534</v>
       </c>
       <c r="C40" t="n">
-        <v>4.56</v>
+        <v>4.534</v>
       </c>
       <c r="D40" t="n">
-        <v>4.56</v>
+        <v>4.534</v>
       </c>
       <c r="E40" t="n">
-        <v>4.56</v>
+        <v>4.534</v>
       </c>
       <c r="F40" t="n">
-        <v>109.6251</v>
+        <v>36915.9326</v>
       </c>
       <c r="G40" t="n">
-        <v>-1133182.58108075</v>
+        <v>-1370969.895285151</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1842,28 +1904,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.515</v>
+        <v>4.532</v>
       </c>
       <c r="C41" t="n">
-        <v>4.461</v>
+        <v>4.532</v>
       </c>
       <c r="D41" t="n">
-        <v>4.515</v>
+        <v>4.532</v>
       </c>
       <c r="E41" t="n">
-        <v>4.461</v>
+        <v>4.532</v>
       </c>
       <c r="F41" t="n">
-        <v>364000</v>
+        <v>35077.467</v>
       </c>
       <c r="G41" t="n">
-        <v>-1497182.58108075</v>
+        <v>-1406047.36228515</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1878,28 +1940,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.461</v>
+        <v>4.515</v>
       </c>
       <c r="C42" t="n">
-        <v>4.402</v>
+        <v>4.515</v>
       </c>
       <c r="D42" t="n">
-        <v>4.461</v>
+        <v>4.515</v>
       </c>
       <c r="E42" t="n">
-        <v>4.402</v>
+        <v>4.515</v>
       </c>
       <c r="F42" t="n">
-        <v>1280709.2346</v>
+        <v>25635.9999</v>
       </c>
       <c r="G42" t="n">
-        <v>-2777891.815680751</v>
+        <v>-1431683.36218515</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1914,28 +1976,28 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.41</v>
+        <v>4.533</v>
       </c>
       <c r="C43" t="n">
-        <v>4.409</v>
+        <v>4.533</v>
       </c>
       <c r="D43" t="n">
-        <v>4.41</v>
+        <v>4.533</v>
       </c>
       <c r="E43" t="n">
-        <v>4.409</v>
+        <v>4.533</v>
       </c>
       <c r="F43" t="n">
-        <v>353513.5014</v>
+        <v>33316.2422</v>
       </c>
       <c r="G43" t="n">
-        <v>-2424378.314280751</v>
+        <v>-1398367.11998515</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1950,22 +2012,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.505</v>
+        <v>4.534</v>
       </c>
       <c r="C44" t="n">
-        <v>4.505</v>
+        <v>4.534</v>
       </c>
       <c r="D44" t="n">
-        <v>4.505</v>
+        <v>4.534</v>
       </c>
       <c r="E44" t="n">
-        <v>4.505</v>
+        <v>4.534</v>
       </c>
       <c r="F44" t="n">
-        <v>112</v>
+        <v>31643.4494</v>
       </c>
       <c r="G44" t="n">
-        <v>-2424266.314280751</v>
+        <v>-1366723.67058515</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +2048,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.505</v>
+        <v>4.535</v>
       </c>
       <c r="C45" t="n">
-        <v>4.41</v>
+        <v>4.54</v>
       </c>
       <c r="D45" t="n">
-        <v>4.505</v>
+        <v>4.54</v>
       </c>
       <c r="E45" t="n">
-        <v>4.41</v>
+        <v>4.535</v>
       </c>
       <c r="F45" t="n">
-        <v>173490.4412</v>
+        <v>12780.8370044</v>
       </c>
       <c r="G45" t="n">
-        <v>-2597756.75548075</v>
+        <v>-1353942.83358075</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2084,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.511</v>
+        <v>4.516</v>
       </c>
       <c r="C46" t="n">
-        <v>4.511</v>
+        <v>4.55</v>
       </c>
       <c r="D46" t="n">
-        <v>4.511</v>
+        <v>4.55</v>
       </c>
       <c r="E46" t="n">
-        <v>4.511</v>
+        <v>4.516</v>
       </c>
       <c r="F46" t="n">
-        <v>5000</v>
+        <v>16816.1759</v>
       </c>
       <c r="G46" t="n">
-        <v>-2592756.75548075</v>
+        <v>-1337126.65768075</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2120,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="C47" t="n">
-        <v>4.511</v>
+        <v>4.55</v>
       </c>
       <c r="D47" t="n">
-        <v>4.511</v>
+        <v>4.55</v>
       </c>
       <c r="E47" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="F47" t="n">
-        <v>5000</v>
+        <v>24796.2554956</v>
       </c>
       <c r="G47" t="n">
-        <v>-2592756.75548075</v>
+        <v>-1337126.65768075</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,28 +2156,28 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.512</v>
+        <v>4.55</v>
       </c>
       <c r="C48" t="n">
-        <v>4.512</v>
+        <v>4.551</v>
       </c>
       <c r="D48" t="n">
-        <v>4.512</v>
+        <v>4.551</v>
       </c>
       <c r="E48" t="n">
-        <v>4.512</v>
+        <v>4.54</v>
       </c>
       <c r="F48" t="n">
-        <v>200</v>
+        <v>46112.7988</v>
       </c>
       <c r="G48" t="n">
-        <v>-2592556.75548075</v>
+        <v>-1291013.85888075</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2130,28 +2192,28 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.476</v>
+        <v>4.551</v>
       </c>
       <c r="C49" t="n">
-        <v>4.476</v>
+        <v>4.551</v>
       </c>
       <c r="D49" t="n">
-        <v>4.476</v>
+        <v>4.551</v>
       </c>
       <c r="E49" t="n">
-        <v>4.476</v>
+        <v>4.551</v>
       </c>
       <c r="F49" t="n">
-        <v>2496.26</v>
+        <v>30000</v>
       </c>
       <c r="G49" t="n">
-        <v>-2595053.01548075</v>
+        <v>-1291013.85888075</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2166,28 +2228,28 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.512</v>
+        <v>4.55</v>
       </c>
       <c r="C50" t="n">
-        <v>4.512</v>
+        <v>4.535</v>
       </c>
       <c r="D50" t="n">
-        <v>4.512</v>
+        <v>4.55</v>
       </c>
       <c r="E50" t="n">
-        <v>4.512</v>
+        <v>4.535</v>
       </c>
       <c r="F50" t="n">
-        <v>111</v>
+        <v>20000</v>
       </c>
       <c r="G50" t="n">
-        <v>-2594942.01548075</v>
+        <v>-1311013.85888075</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2202,28 +2264,28 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.476</v>
+        <v>4.55</v>
       </c>
       <c r="C51" t="n">
-        <v>4.476</v>
+        <v>4.55</v>
       </c>
       <c r="D51" t="n">
-        <v>4.476</v>
+        <v>4.55</v>
       </c>
       <c r="E51" t="n">
-        <v>4.476</v>
+        <v>4.55</v>
       </c>
       <c r="F51" t="n">
-        <v>3.74</v>
+        <v>109.8902</v>
       </c>
       <c r="G51" t="n">
-        <v>-2594945.75548075</v>
+        <v>-1310903.96868075</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2238,28 +2300,28 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.475</v>
+        <v>4.55</v>
       </c>
       <c r="C52" t="n">
-        <v>4.511</v>
+        <v>4.55</v>
       </c>
       <c r="D52" t="n">
-        <v>4.511</v>
+        <v>4.55</v>
       </c>
       <c r="E52" t="n">
-        <v>4.475</v>
+        <v>4.55</v>
       </c>
       <c r="F52" t="n">
-        <v>1789.9451</v>
+        <v>5000</v>
       </c>
       <c r="G52" t="n">
-        <v>-2593155.81038075</v>
+        <v>-1310903.96868075</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2274,28 +2336,28 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.475</v>
+        <v>4.545</v>
       </c>
       <c r="C53" t="n">
-        <v>4.475</v>
+        <v>4.535</v>
       </c>
       <c r="D53" t="n">
-        <v>4.475</v>
+        <v>4.545</v>
       </c>
       <c r="E53" t="n">
-        <v>4.475</v>
+        <v>4.535</v>
       </c>
       <c r="F53" t="n">
-        <v>2592.6591</v>
+        <v>31349</v>
       </c>
       <c r="G53" t="n">
-        <v>-2595748.46948075</v>
+        <v>-1342252.96868075</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2310,28 +2372,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.511</v>
+        <v>4.545</v>
       </c>
       <c r="C54" t="n">
-        <v>4.511</v>
+        <v>4.545</v>
       </c>
       <c r="D54" t="n">
-        <v>4.511</v>
+        <v>4.545</v>
       </c>
       <c r="E54" t="n">
-        <v>4.511</v>
+        <v>4.545</v>
       </c>
       <c r="F54" t="n">
-        <v>111</v>
+        <v>120000</v>
       </c>
       <c r="G54" t="n">
-        <v>-2595637.46948075</v>
+        <v>-1222252.96868075</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2346,28 +2408,28 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.475</v>
+        <v>4.535</v>
       </c>
       <c r="C55" t="n">
-        <v>4.45</v>
+        <v>4.535</v>
       </c>
       <c r="D55" t="n">
-        <v>4.475</v>
+        <v>4.535</v>
       </c>
       <c r="E55" t="n">
-        <v>4.45</v>
+        <v>4.535</v>
       </c>
       <c r="F55" t="n">
-        <v>15000</v>
+        <v>54803.4412</v>
       </c>
       <c r="G55" t="n">
-        <v>-2610637.46948075</v>
+        <v>-1277056.40988075</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2382,28 +2444,28 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.51</v>
+        <v>4.535</v>
       </c>
       <c r="C56" t="n">
-        <v>4.51</v>
+        <v>4.535</v>
       </c>
       <c r="D56" t="n">
-        <v>4.51</v>
+        <v>4.535</v>
       </c>
       <c r="E56" t="n">
-        <v>4.51</v>
+        <v>4.535</v>
       </c>
       <c r="F56" t="n">
-        <v>111</v>
+        <v>35729</v>
       </c>
       <c r="G56" t="n">
-        <v>-2610526.46948075</v>
+        <v>-1277056.40988075</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2418,35 +2480,31 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.499</v>
+        <v>4.55</v>
       </c>
       <c r="C57" t="n">
-        <v>4.499</v>
+        <v>4.55</v>
       </c>
       <c r="D57" t="n">
-        <v>4.499</v>
+        <v>4.55</v>
       </c>
       <c r="E57" t="n">
-        <v>4.499</v>
+        <v>4.55</v>
       </c>
       <c r="F57" t="n">
-        <v>239499.3013</v>
+        <v>103816.6864</v>
       </c>
       <c r="G57" t="n">
-        <v>-2850025.77078075</v>
+        <v>-1173239.72348075</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="K57" t="n">
-        <v>4.51</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
@@ -2458,38 +2516,32 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.45</v>
+        <v>4.551</v>
       </c>
       <c r="C58" t="n">
-        <v>4.45</v>
+        <v>4.551</v>
       </c>
       <c r="D58" t="n">
-        <v>4.45</v>
+        <v>4.551</v>
       </c>
       <c r="E58" t="n">
-        <v>4.45</v>
+        <v>4.551</v>
       </c>
       <c r="F58" t="n">
-        <v>352.4211</v>
+        <v>61502.8634</v>
       </c>
       <c r="G58" t="n">
-        <v>-2850378.19188075</v>
+        <v>-1111736.86008075</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2500,40 +2552,32 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.45</v>
+        <v>4.55</v>
       </c>
       <c r="C59" t="n">
-        <v>4.45</v>
+        <v>4.55</v>
       </c>
       <c r="D59" t="n">
-        <v>4.45</v>
+        <v>4.55</v>
       </c>
       <c r="E59" t="n">
-        <v>4.45</v>
+        <v>4.55</v>
       </c>
       <c r="F59" t="n">
-        <v>48142</v>
+        <v>1129.0152</v>
       </c>
       <c r="G59" t="n">
-        <v>-2850378.19188075</v>
+        <v>-1112865.87528075</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="K59" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2544,28 +2588,28 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.45</v>
+        <v>4.535</v>
       </c>
       <c r="C60" t="n">
-        <v>4.45</v>
+        <v>4.525</v>
       </c>
       <c r="D60" t="n">
-        <v>4.45</v>
+        <v>4.535</v>
       </c>
       <c r="E60" t="n">
-        <v>4.45</v>
+        <v>4.525</v>
       </c>
       <c r="F60" t="n">
-        <v>108398.2532</v>
+        <v>25636</v>
       </c>
       <c r="G60" t="n">
-        <v>-2850378.19188075</v>
+        <v>-1138501.87528075</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2580,35 +2624,31 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.5</v>
+        <v>4.549</v>
       </c>
       <c r="C61" t="n">
-        <v>4.5</v>
+        <v>4.549</v>
       </c>
       <c r="D61" t="n">
-        <v>4.5</v>
+        <v>4.549</v>
       </c>
       <c r="E61" t="n">
-        <v>4.5</v>
+        <v>4.549</v>
       </c>
       <c r="F61" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G61" t="n">
-        <v>-2850266.19188075</v>
+        <v>-1138391.87528075</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="K61" t="n">
-        <v>4.45</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
@@ -2620,40 +2660,32 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.5</v>
+        <v>4.549</v>
       </c>
       <c r="C62" t="n">
-        <v>4.5</v>
+        <v>4.554</v>
       </c>
       <c r="D62" t="n">
-        <v>4.5</v>
+        <v>4.554</v>
       </c>
       <c r="E62" t="n">
-        <v>4.5</v>
+        <v>4.515</v>
       </c>
       <c r="F62" t="n">
-        <v>922137.1779</v>
+        <v>23573.2159</v>
       </c>
       <c r="G62" t="n">
-        <v>-2850266.19188075</v>
+        <v>-1114818.65938075</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K62" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2664,40 +2696,32 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.5</v>
+        <v>4.565</v>
       </c>
       <c r="C63" t="n">
-        <v>4.5</v>
+        <v>4.567</v>
       </c>
       <c r="D63" t="n">
-        <v>4.5</v>
+        <v>4.567</v>
       </c>
       <c r="E63" t="n">
         <v>4.5</v>
       </c>
       <c r="F63" t="n">
-        <v>325444.5753</v>
+        <v>30147.8643</v>
       </c>
       <c r="G63" t="n">
-        <v>-2850266.19188075</v>
+        <v>-1084670.79508075</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K63" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2708,22 +2732,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.499</v>
+        <v>4.566</v>
       </c>
       <c r="C64" t="n">
-        <v>4.499</v>
+        <v>4.567</v>
       </c>
       <c r="D64" t="n">
-        <v>4.499</v>
+        <v>4.567</v>
       </c>
       <c r="E64" t="n">
-        <v>4.499</v>
+        <v>4.566</v>
       </c>
       <c r="F64" t="n">
-        <v>755645.9772</v>
+        <v>1532.7349</v>
       </c>
       <c r="G64" t="n">
-        <v>-3605912.16908075</v>
+        <v>-1084670.79508075</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2744,22 +2768,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.475</v>
+        <v>4.491</v>
       </c>
       <c r="C65" t="n">
-        <v>4.475</v>
+        <v>4.491</v>
       </c>
       <c r="D65" t="n">
-        <v>4.475</v>
+        <v>4.491</v>
       </c>
       <c r="E65" t="n">
-        <v>4.475</v>
+        <v>4.491</v>
       </c>
       <c r="F65" t="n">
-        <v>5000</v>
+        <v>41286.4111</v>
       </c>
       <c r="G65" t="n">
-        <v>-3610912.16908075</v>
+        <v>-1125957.20618075</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2780,22 +2804,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.499</v>
+        <v>4.566</v>
       </c>
       <c r="C66" t="n">
-        <v>4.499</v>
+        <v>4.566</v>
       </c>
       <c r="D66" t="n">
-        <v>4.499</v>
+        <v>4.566</v>
       </c>
       <c r="E66" t="n">
-        <v>4.499</v>
+        <v>4.566</v>
       </c>
       <c r="F66" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G66" t="n">
-        <v>-3610800.16908075</v>
+        <v>-1125847.20618075</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2816,22 +2840,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.45</v>
+        <v>4.491</v>
       </c>
       <c r="C67" t="n">
-        <v>4.45</v>
+        <v>4.566</v>
       </c>
       <c r="D67" t="n">
-        <v>4.45</v>
+        <v>4.566</v>
       </c>
       <c r="E67" t="n">
-        <v>4.45</v>
+        <v>4.491</v>
       </c>
       <c r="F67" t="n">
-        <v>15000</v>
+        <v>41019.93108738</v>
       </c>
       <c r="G67" t="n">
-        <v>-3625800.16908075</v>
+        <v>-1125847.20618075</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2852,22 +2876,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.498</v>
+        <v>4.492</v>
       </c>
       <c r="C68" t="n">
-        <v>4.428</v>
+        <v>4.492</v>
       </c>
       <c r="D68" t="n">
-        <v>4.498</v>
+        <v>4.492</v>
       </c>
       <c r="E68" t="n">
-        <v>4.428</v>
+        <v>4.492</v>
       </c>
       <c r="F68" t="n">
-        <v>8930.876700000001</v>
+        <v>7445</v>
       </c>
       <c r="G68" t="n">
-        <v>-3634731.04578075</v>
+        <v>-1133292.20618075</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2888,22 +2912,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.499</v>
+        <v>4.56</v>
       </c>
       <c r="C69" t="n">
-        <v>4.499</v>
+        <v>4.56</v>
       </c>
       <c r="D69" t="n">
-        <v>4.499</v>
+        <v>4.56</v>
       </c>
       <c r="E69" t="n">
-        <v>4.499</v>
+        <v>4.56</v>
       </c>
       <c r="F69" t="n">
-        <v>112</v>
+        <v>109.6251</v>
       </c>
       <c r="G69" t="n">
-        <v>-3634619.04578075</v>
+        <v>-1133182.58108075</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2924,22 +2948,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.499</v>
+        <v>4.515</v>
       </c>
       <c r="C70" t="n">
-        <v>4.499</v>
+        <v>4.461</v>
       </c>
       <c r="D70" t="n">
-        <v>4.499</v>
+        <v>4.515</v>
       </c>
       <c r="E70" t="n">
-        <v>4.499</v>
+        <v>4.461</v>
       </c>
       <c r="F70" t="n">
-        <v>10000</v>
+        <v>364000</v>
       </c>
       <c r="G70" t="n">
-        <v>-3634619.04578075</v>
+        <v>-1497182.58108075</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2960,22 +2984,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.475</v>
+        <v>4.461</v>
       </c>
       <c r="C71" t="n">
-        <v>4.43</v>
+        <v>4.402</v>
       </c>
       <c r="D71" t="n">
-        <v>4.475</v>
+        <v>4.461</v>
       </c>
       <c r="E71" t="n">
-        <v>4.43</v>
+        <v>4.402</v>
       </c>
       <c r="F71" t="n">
-        <v>113397.1579</v>
+        <v>1280709.2346</v>
       </c>
       <c r="G71" t="n">
-        <v>-3748016.20368075</v>
+        <v>-2777891.815680751</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2996,22 +3020,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.485</v>
+        <v>4.41</v>
       </c>
       <c r="C72" t="n">
-        <v>4.485</v>
+        <v>4.409</v>
       </c>
       <c r="D72" t="n">
-        <v>4.485</v>
+        <v>4.41</v>
       </c>
       <c r="E72" t="n">
-        <v>4.485</v>
+        <v>4.409</v>
       </c>
       <c r="F72" t="n">
-        <v>112</v>
+        <v>353513.5014</v>
       </c>
       <c r="G72" t="n">
-        <v>-3747904.20368075</v>
+        <v>-2424378.314280751</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3032,31 +3056,35 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.428</v>
+        <v>4.505</v>
       </c>
       <c r="C73" t="n">
-        <v>4.428</v>
+        <v>4.505</v>
       </c>
       <c r="D73" t="n">
-        <v>4.428</v>
+        <v>4.505</v>
       </c>
       <c r="E73" t="n">
-        <v>4.428</v>
+        <v>4.505</v>
       </c>
       <c r="F73" t="n">
-        <v>245209.2749</v>
+        <v>112</v>
       </c>
       <c r="G73" t="n">
-        <v>-3993113.47858075</v>
+        <v>-2424266.314280751</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>4.409</v>
+      </c>
+      <c r="K73" t="n">
+        <v>4.409</v>
+      </c>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
@@ -3068,22 +3096,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.428</v>
+        <v>4.505</v>
       </c>
       <c r="C74" t="n">
-        <v>4.428</v>
+        <v>4.41</v>
       </c>
       <c r="D74" t="n">
-        <v>4.428</v>
+        <v>4.505</v>
       </c>
       <c r="E74" t="n">
-        <v>4.428</v>
+        <v>4.41</v>
       </c>
       <c r="F74" t="n">
-        <v>25000</v>
+        <v>173490.4412</v>
       </c>
       <c r="G74" t="n">
-        <v>-3993113.47858075</v>
+        <v>-2597756.75548075</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3092,8 +3120,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>4.409</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3104,22 +3138,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.428</v>
+        <v>4.511</v>
       </c>
       <c r="C75" t="n">
-        <v>4.426</v>
+        <v>4.511</v>
       </c>
       <c r="D75" t="n">
-        <v>4.428</v>
+        <v>4.511</v>
       </c>
       <c r="E75" t="n">
-        <v>4.426</v>
+        <v>4.511</v>
       </c>
       <c r="F75" t="n">
-        <v>53900</v>
+        <v>5000</v>
       </c>
       <c r="G75" t="n">
-        <v>-4047013.47858075</v>
+        <v>-2592756.75548075</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3128,8 +3162,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>4.409</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3140,22 +3180,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.425</v>
+        <v>4.5</v>
       </c>
       <c r="C76" t="n">
-        <v>4.425</v>
+        <v>4.511</v>
       </c>
       <c r="D76" t="n">
-        <v>4.425</v>
+        <v>4.511</v>
       </c>
       <c r="E76" t="n">
-        <v>4.425</v>
+        <v>4.5</v>
       </c>
       <c r="F76" t="n">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="G76" t="n">
-        <v>-4072013.47858075</v>
+        <v>-2592756.75548075</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3176,22 +3216,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.416</v>
+        <v>4.512</v>
       </c>
       <c r="C77" t="n">
-        <v>4.407</v>
+        <v>4.512</v>
       </c>
       <c r="D77" t="n">
-        <v>4.416</v>
+        <v>4.512</v>
       </c>
       <c r="E77" t="n">
-        <v>4.407</v>
+        <v>4.512</v>
       </c>
       <c r="F77" t="n">
-        <v>110000</v>
+        <v>200</v>
       </c>
       <c r="G77" t="n">
-        <v>-4182013.47858075</v>
+        <v>-2592556.75548075</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3212,22 +3252,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.407</v>
+        <v>4.476</v>
       </c>
       <c r="C78" t="n">
-        <v>4.425</v>
+        <v>4.476</v>
       </c>
       <c r="D78" t="n">
-        <v>4.425</v>
+        <v>4.476</v>
       </c>
       <c r="E78" t="n">
-        <v>4.407</v>
+        <v>4.476</v>
       </c>
       <c r="F78" t="n">
-        <v>90185.72560000001</v>
+        <v>2496.26</v>
       </c>
       <c r="G78" t="n">
-        <v>-4091827.75298075</v>
+        <v>-2595053.01548075</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3248,22 +3288,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.406</v>
+        <v>4.512</v>
       </c>
       <c r="C79" t="n">
-        <v>4.485</v>
+        <v>4.512</v>
       </c>
       <c r="D79" t="n">
-        <v>4.485</v>
+        <v>4.512</v>
       </c>
       <c r="E79" t="n">
-        <v>4.406</v>
+        <v>4.512</v>
       </c>
       <c r="F79" t="n">
-        <v>332304.6649</v>
+        <v>111</v>
       </c>
       <c r="G79" t="n">
-        <v>-3759523.08808075</v>
+        <v>-2594942.01548075</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3284,22 +3324,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.485</v>
+        <v>4.476</v>
       </c>
       <c r="C80" t="n">
-        <v>4.485</v>
+        <v>4.476</v>
       </c>
       <c r="D80" t="n">
-        <v>4.485</v>
+        <v>4.476</v>
       </c>
       <c r="E80" t="n">
-        <v>4.485</v>
+        <v>4.476</v>
       </c>
       <c r="F80" t="n">
-        <v>116.3415</v>
+        <v>3.74</v>
       </c>
       <c r="G80" t="n">
-        <v>-3759523.08808075</v>
+        <v>-2594945.75548075</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3320,22 +3360,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.42</v>
+        <v>4.475</v>
       </c>
       <c r="C81" t="n">
-        <v>4.402</v>
+        <v>4.511</v>
       </c>
       <c r="D81" t="n">
-        <v>4.42</v>
+        <v>4.511</v>
       </c>
       <c r="E81" t="n">
-        <v>4.402</v>
+        <v>4.475</v>
       </c>
       <c r="F81" t="n">
-        <v>103420.5807</v>
+        <v>1789.9451</v>
       </c>
       <c r="G81" t="n">
-        <v>-3862943.66878075</v>
+        <v>-2593155.81038075</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3356,22 +3396,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.402</v>
+        <v>4.475</v>
       </c>
       <c r="C82" t="n">
-        <v>4.401</v>
+        <v>4.475</v>
       </c>
       <c r="D82" t="n">
-        <v>4.402</v>
+        <v>4.475</v>
       </c>
       <c r="E82" t="n">
-        <v>4.401</v>
+        <v>4.475</v>
       </c>
       <c r="F82" t="n">
-        <v>100000</v>
+        <v>2592.6591</v>
       </c>
       <c r="G82" t="n">
-        <v>-3962943.66878075</v>
+        <v>-2595748.46948075</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3392,22 +3432,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.402</v>
+        <v>4.511</v>
       </c>
       <c r="C83" t="n">
-        <v>4.401</v>
+        <v>4.511</v>
       </c>
       <c r="D83" t="n">
-        <v>4.402</v>
+        <v>4.511</v>
       </c>
       <c r="E83" t="n">
-        <v>4.401</v>
+        <v>4.511</v>
       </c>
       <c r="F83" t="n">
-        <v>100000</v>
+        <v>111</v>
       </c>
       <c r="G83" t="n">
-        <v>-3962943.66878075</v>
+        <v>-2595637.46948075</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3428,22 +3468,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.47</v>
+        <v>4.475</v>
       </c>
       <c r="C84" t="n">
-        <v>4.47</v>
+        <v>4.45</v>
       </c>
       <c r="D84" t="n">
-        <v>4.47</v>
+        <v>4.475</v>
       </c>
       <c r="E84" t="n">
-        <v>4.47</v>
+        <v>4.45</v>
       </c>
       <c r="F84" t="n">
-        <v>113</v>
+        <v>15000</v>
       </c>
       <c r="G84" t="n">
-        <v>-3962830.66878075</v>
+        <v>-2610637.46948075</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3464,35 +3504,31 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.484</v>
+        <v>4.51</v>
       </c>
       <c r="C85" t="n">
-        <v>4.484</v>
+        <v>4.51</v>
       </c>
       <c r="D85" t="n">
-        <v>4.484</v>
+        <v>4.51</v>
       </c>
       <c r="E85" t="n">
-        <v>4.484</v>
+        <v>4.51</v>
       </c>
       <c r="F85" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G85" t="n">
-        <v>-3962717.66878075</v>
+        <v>-2610526.46948075</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="K85" t="n">
-        <v>4.47</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
@@ -3504,22 +3540,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.402</v>
+        <v>4.499</v>
       </c>
       <c r="C86" t="n">
-        <v>4.484</v>
+        <v>4.499</v>
       </c>
       <c r="D86" t="n">
-        <v>4.484</v>
+        <v>4.499</v>
       </c>
       <c r="E86" t="n">
-        <v>4.402</v>
+        <v>4.499</v>
       </c>
       <c r="F86" t="n">
-        <v>9113</v>
+        <v>239499.3013</v>
       </c>
       <c r="G86" t="n">
-        <v>-3962717.66878075</v>
+        <v>-2850025.77078075</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3528,14 +3564,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3546,22 +3576,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.47</v>
+        <v>4.45</v>
       </c>
       <c r="C87" t="n">
-        <v>4.484</v>
+        <v>4.45</v>
       </c>
       <c r="D87" t="n">
-        <v>4.484</v>
+        <v>4.45</v>
       </c>
       <c r="E87" t="n">
-        <v>4.47</v>
+        <v>4.45</v>
       </c>
       <c r="F87" t="n">
-        <v>5000</v>
+        <v>352.4211</v>
       </c>
       <c r="G87" t="n">
-        <v>-3962717.66878075</v>
+        <v>-2850378.19188075</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3570,14 +3600,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3588,38 +3612,36 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.404</v>
+        <v>4.45</v>
       </c>
       <c r="C88" t="n">
-        <v>4.403</v>
+        <v>4.45</v>
       </c>
       <c r="D88" t="n">
-        <v>4.404</v>
+        <v>4.45</v>
       </c>
       <c r="E88" t="n">
-        <v>4.403</v>
+        <v>4.45</v>
       </c>
       <c r="F88" t="n">
-        <v>258196.6726</v>
+        <v>48142</v>
       </c>
       <c r="G88" t="n">
-        <v>-4220914.34138075</v>
+        <v>-2850378.19188075</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>4.45</v>
+      </c>
       <c r="K88" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>4.45</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3630,36 +3652,38 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.484</v>
+        <v>4.45</v>
       </c>
       <c r="C89" t="n">
-        <v>4.484</v>
+        <v>4.45</v>
       </c>
       <c r="D89" t="n">
-        <v>4.484</v>
+        <v>4.45</v>
       </c>
       <c r="E89" t="n">
-        <v>4.484</v>
+        <v>4.45</v>
       </c>
       <c r="F89" t="n">
-        <v>113</v>
+        <v>108398.2532</v>
       </c>
       <c r="G89" t="n">
-        <v>-4220801.34138075</v>
+        <v>-2850378.19188075</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>4.45</v>
+      </c>
       <c r="K89" t="n">
-        <v>4.47</v>
+        <v>4.45</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M89" t="n">
@@ -3672,36 +3696,38 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.485</v>
+        <v>4.5</v>
       </c>
       <c r="C90" t="n">
-        <v>4.484</v>
+        <v>4.5</v>
       </c>
       <c r="D90" t="n">
-        <v>4.485</v>
+        <v>4.5</v>
       </c>
       <c r="E90" t="n">
-        <v>4.484</v>
+        <v>4.5</v>
       </c>
       <c r="F90" t="n">
-        <v>15000</v>
+        <v>112</v>
       </c>
       <c r="G90" t="n">
-        <v>-4220801.34138075</v>
+        <v>-2850266.19188075</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>4.45</v>
+      </c>
       <c r="K90" t="n">
-        <v>4.47</v>
+        <v>4.45</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M90" t="n">
@@ -3714,22 +3740,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.485</v>
+        <v>4.5</v>
       </c>
       <c r="C91" t="n">
-        <v>4.425</v>
+        <v>4.5</v>
       </c>
       <c r="D91" t="n">
-        <v>4.485</v>
+        <v>4.5</v>
       </c>
       <c r="E91" t="n">
-        <v>4.425</v>
+        <v>4.5</v>
       </c>
       <c r="F91" t="n">
-        <v>118764.8164</v>
+        <v>922137.1779</v>
       </c>
       <c r="G91" t="n">
-        <v>-4339566.15778075</v>
+        <v>-2850266.19188075</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3738,14 +3764,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3756,22 +3776,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.506</v>
+        <v>4.5</v>
       </c>
       <c r="C92" t="n">
-        <v>4.506</v>
+        <v>4.5</v>
       </c>
       <c r="D92" t="n">
-        <v>4.506</v>
+        <v>4.5</v>
       </c>
       <c r="E92" t="n">
-        <v>4.506</v>
+        <v>4.5</v>
       </c>
       <c r="F92" t="n">
-        <v>1355.1325</v>
+        <v>325444.5753</v>
       </c>
       <c r="G92" t="n">
-        <v>-4338211.025280749</v>
+        <v>-2850266.19188075</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3780,14 +3800,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3810,10 +3824,10 @@
         <v>4.499</v>
       </c>
       <c r="F93" t="n">
-        <v>1520.156</v>
+        <v>755645.9772</v>
       </c>
       <c r="G93" t="n">
-        <v>-4339731.18128075</v>
+        <v>-3605912.16908075</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3822,14 +3836,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3840,22 +3848,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.485</v>
+        <v>4.475</v>
       </c>
       <c r="C94" t="n">
         <v>4.475</v>
       </c>
       <c r="D94" t="n">
-        <v>4.485</v>
+        <v>4.475</v>
       </c>
       <c r="E94" t="n">
         <v>4.475</v>
       </c>
       <c r="F94" t="n">
-        <v>5002</v>
+        <v>5000</v>
       </c>
       <c r="G94" t="n">
-        <v>-4344733.18128075</v>
+        <v>-3610912.16908075</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3864,14 +3872,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3882,22 +3884,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.506</v>
+        <v>4.499</v>
       </c>
       <c r="C95" t="n">
-        <v>4.45</v>
+        <v>4.499</v>
       </c>
       <c r="D95" t="n">
-        <v>4.506</v>
+        <v>4.499</v>
       </c>
       <c r="E95" t="n">
-        <v>4.45</v>
+        <v>4.499</v>
       </c>
       <c r="F95" t="n">
-        <v>10001</v>
+        <v>112</v>
       </c>
       <c r="G95" t="n">
-        <v>-4354734.18128075</v>
+        <v>-3610800.16908075</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3906,14 +3908,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3924,22 +3920,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="C96" t="n">
-        <v>4.506</v>
+        <v>4.45</v>
       </c>
       <c r="D96" t="n">
-        <v>4.506</v>
+        <v>4.45</v>
       </c>
       <c r="E96" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="F96" t="n">
-        <v>2611</v>
+        <v>15000</v>
       </c>
       <c r="G96" t="n">
-        <v>-4352123.18128075</v>
+        <v>-3625800.16908075</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3948,14 +3944,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3966,22 +3956,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.485</v>
+        <v>4.498</v>
       </c>
       <c r="C97" t="n">
-        <v>4.45</v>
+        <v>4.428</v>
       </c>
       <c r="D97" t="n">
-        <v>4.485</v>
+        <v>4.498</v>
       </c>
       <c r="E97" t="n">
-        <v>4.45</v>
+        <v>4.428</v>
       </c>
       <c r="F97" t="n">
-        <v>4997</v>
+        <v>8930.876700000001</v>
       </c>
       <c r="G97" t="n">
-        <v>-4357120.18128075</v>
+        <v>-3634731.04578075</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3990,14 +3980,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4008,22 +3992,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.506</v>
+        <v>4.499</v>
       </c>
       <c r="C98" t="n">
-        <v>4.506</v>
+        <v>4.499</v>
       </c>
       <c r="D98" t="n">
-        <v>4.506</v>
+        <v>4.499</v>
       </c>
       <c r="E98" t="n">
-        <v>4.506</v>
+        <v>4.499</v>
       </c>
       <c r="F98" t="n">
-        <v>997.742</v>
+        <v>112</v>
       </c>
       <c r="G98" t="n">
-        <v>-4356122.43928075</v>
+        <v>-3634619.04578075</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4032,14 +4016,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4050,22 +4028,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.5</v>
+        <v>4.499</v>
       </c>
       <c r="C99" t="n">
-        <v>4.5</v>
+        <v>4.499</v>
       </c>
       <c r="D99" t="n">
-        <v>4.5</v>
+        <v>4.499</v>
       </c>
       <c r="E99" t="n">
-        <v>4.5</v>
+        <v>4.499</v>
       </c>
       <c r="F99" t="n">
-        <v>1497.75</v>
+        <v>10000</v>
       </c>
       <c r="G99" t="n">
-        <v>-4357620.18928075</v>
+        <v>-3634619.04578075</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4074,14 +4052,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4092,22 +4064,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.506</v>
+        <v>4.475</v>
       </c>
       <c r="C100" t="n">
-        <v>4.506</v>
+        <v>4.43</v>
       </c>
       <c r="D100" t="n">
-        <v>4.506</v>
+        <v>4.475</v>
       </c>
       <c r="E100" t="n">
-        <v>4.506</v>
+        <v>4.43</v>
       </c>
       <c r="F100" t="n">
-        <v>113</v>
+        <v>113397.1579</v>
       </c>
       <c r="G100" t="n">
-        <v>-4357507.18928075</v>
+        <v>-3748016.20368075</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4116,14 +4088,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4134,22 +4100,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.5</v>
+        <v>4.485</v>
       </c>
       <c r="C101" t="n">
-        <v>4.5</v>
+        <v>4.485</v>
       </c>
       <c r="D101" t="n">
-        <v>4.5</v>
+        <v>4.485</v>
       </c>
       <c r="E101" t="n">
-        <v>4.5</v>
+        <v>4.485</v>
       </c>
       <c r="F101" t="n">
-        <v>2.25</v>
+        <v>112</v>
       </c>
       <c r="G101" t="n">
-        <v>-4357509.43928075</v>
+        <v>-3747904.20368075</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4158,14 +4124,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4176,22 +4136,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.499</v>
+        <v>4.428</v>
       </c>
       <c r="C102" t="n">
-        <v>4.499</v>
+        <v>4.428</v>
       </c>
       <c r="D102" t="n">
-        <v>4.499</v>
+        <v>4.428</v>
       </c>
       <c r="E102" t="n">
-        <v>4.499</v>
+        <v>4.428</v>
       </c>
       <c r="F102" t="n">
-        <v>1967.5793</v>
+        <v>245209.2749</v>
       </c>
       <c r="G102" t="n">
-        <v>-4359477.018580751</v>
+        <v>-3993113.47858075</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4200,14 +4160,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4218,22 +4172,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.499</v>
+        <v>4.428</v>
       </c>
       <c r="C103" t="n">
-        <v>4.5</v>
+        <v>4.428</v>
       </c>
       <c r="D103" t="n">
-        <v>4.5</v>
+        <v>4.428</v>
       </c>
       <c r="E103" t="n">
-        <v>4.499</v>
+        <v>4.428</v>
       </c>
       <c r="F103" t="n">
-        <v>183783.315</v>
+        <v>25000</v>
       </c>
       <c r="G103" t="n">
-        <v>-4175693.703580751</v>
+        <v>-3993113.47858075</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4242,14 +4196,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4260,22 +4208,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.507</v>
+        <v>4.428</v>
       </c>
       <c r="C104" t="n">
-        <v>4.507</v>
+        <v>4.426</v>
       </c>
       <c r="D104" t="n">
-        <v>4.507</v>
+        <v>4.428</v>
       </c>
       <c r="E104" t="n">
-        <v>4.507</v>
+        <v>4.426</v>
       </c>
       <c r="F104" t="n">
-        <v>111</v>
+        <v>53900</v>
       </c>
       <c r="G104" t="n">
-        <v>-4175582.703580751</v>
+        <v>-4047013.47858075</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4284,14 +4232,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4302,22 +4244,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.505</v>
+        <v>4.425</v>
       </c>
       <c r="C105" t="n">
-        <v>4.507</v>
+        <v>4.425</v>
       </c>
       <c r="D105" t="n">
-        <v>4.507</v>
+        <v>4.425</v>
       </c>
       <c r="E105" t="n">
-        <v>4.411</v>
+        <v>4.425</v>
       </c>
       <c r="F105" t="n">
-        <v>68113</v>
+        <v>25000</v>
       </c>
       <c r="G105" t="n">
-        <v>-4175582.703580751</v>
+        <v>-4072013.47858075</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4326,14 +4268,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4344,42 +4280,1208 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
+        <v>4.416</v>
+      </c>
+      <c r="C106" t="n">
+        <v>4.407</v>
+      </c>
+      <c r="D106" t="n">
+        <v>4.416</v>
+      </c>
+      <c r="E106" t="n">
+        <v>4.407</v>
+      </c>
+      <c r="F106" t="n">
+        <v>110000</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-4182013.47858075</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>4.425</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>4.407</v>
+      </c>
+      <c r="C107" t="n">
+        <v>4.425</v>
+      </c>
+      <c r="D107" t="n">
+        <v>4.425</v>
+      </c>
+      <c r="E107" t="n">
+        <v>4.407</v>
+      </c>
+      <c r="F107" t="n">
+        <v>90185.72560000001</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-4091827.75298075</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>4.407</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>4.406</v>
+      </c>
+      <c r="C108" t="n">
+        <v>4.485</v>
+      </c>
+      <c r="D108" t="n">
+        <v>4.485</v>
+      </c>
+      <c r="E108" t="n">
+        <v>4.406</v>
+      </c>
+      <c r="F108" t="n">
+        <v>332304.6649</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-3759523.08808075</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>4.425</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>4.485</v>
+      </c>
+      <c r="C109" t="n">
+        <v>4.485</v>
+      </c>
+      <c r="D109" t="n">
+        <v>4.485</v>
+      </c>
+      <c r="E109" t="n">
+        <v>4.485</v>
+      </c>
+      <c r="F109" t="n">
+        <v>116.3415</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-3759523.08808075</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>4.485</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="C110" t="n">
+        <v>4.402</v>
+      </c>
+      <c r="D110" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="E110" t="n">
+        <v>4.402</v>
+      </c>
+      <c r="F110" t="n">
+        <v>103420.5807</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-3862943.66878075</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>4.402</v>
+      </c>
+      <c r="C111" t="n">
+        <v>4.401</v>
+      </c>
+      <c r="D111" t="n">
+        <v>4.402</v>
+      </c>
+      <c r="E111" t="n">
+        <v>4.401</v>
+      </c>
+      <c r="F111" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-3962943.66878075</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>4.402</v>
+      </c>
+      <c r="C112" t="n">
+        <v>4.401</v>
+      </c>
+      <c r="D112" t="n">
+        <v>4.402</v>
+      </c>
+      <c r="E112" t="n">
+        <v>4.401</v>
+      </c>
+      <c r="F112" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-3962943.66878075</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="C113" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="D113" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="E113" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="F113" t="n">
+        <v>113</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-3962830.66878075</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>4.484</v>
+      </c>
+      <c r="C114" t="n">
+        <v>4.484</v>
+      </c>
+      <c r="D114" t="n">
+        <v>4.484</v>
+      </c>
+      <c r="E114" t="n">
+        <v>4.484</v>
+      </c>
+      <c r="F114" t="n">
+        <v>113</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-3962717.66878075</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>4.402</v>
+      </c>
+      <c r="C115" t="n">
+        <v>4.484</v>
+      </c>
+      <c r="D115" t="n">
+        <v>4.484</v>
+      </c>
+      <c r="E115" t="n">
+        <v>4.402</v>
+      </c>
+      <c r="F115" t="n">
+        <v>9113</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-3962717.66878075</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="C116" t="n">
+        <v>4.484</v>
+      </c>
+      <c r="D116" t="n">
+        <v>4.484</v>
+      </c>
+      <c r="E116" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="F116" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-3962717.66878075</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>4.404</v>
+      </c>
+      <c r="C117" t="n">
+        <v>4.403</v>
+      </c>
+      <c r="D117" t="n">
+        <v>4.404</v>
+      </c>
+      <c r="E117" t="n">
+        <v>4.403</v>
+      </c>
+      <c r="F117" t="n">
+        <v>258196.6726</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-4220914.34138075</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>4.484</v>
+      </c>
+      <c r="C118" t="n">
+        <v>4.484</v>
+      </c>
+      <c r="D118" t="n">
+        <v>4.484</v>
+      </c>
+      <c r="E118" t="n">
+        <v>4.484</v>
+      </c>
+      <c r="F118" t="n">
+        <v>113</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-4220801.34138075</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>4.485</v>
+      </c>
+      <c r="C119" t="n">
+        <v>4.484</v>
+      </c>
+      <c r="D119" t="n">
+        <v>4.485</v>
+      </c>
+      <c r="E119" t="n">
+        <v>4.484</v>
+      </c>
+      <c r="F119" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-4220801.34138075</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>4.485</v>
+      </c>
+      <c r="C120" t="n">
+        <v>4.425</v>
+      </c>
+      <c r="D120" t="n">
+        <v>4.485</v>
+      </c>
+      <c r="E120" t="n">
+        <v>4.425</v>
+      </c>
+      <c r="F120" t="n">
+        <v>118764.8164</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-4339566.15778075</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>4.506</v>
+      </c>
+      <c r="C121" t="n">
+        <v>4.506</v>
+      </c>
+      <c r="D121" t="n">
+        <v>4.506</v>
+      </c>
+      <c r="E121" t="n">
+        <v>4.506</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1355.1325</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-4338211.025280749</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>4.499</v>
+      </c>
+      <c r="C122" t="n">
+        <v>4.499</v>
+      </c>
+      <c r="D122" t="n">
+        <v>4.499</v>
+      </c>
+      <c r="E122" t="n">
+        <v>4.499</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1520.156</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-4339731.18128075</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>4.485</v>
+      </c>
+      <c r="C123" t="n">
+        <v>4.475</v>
+      </c>
+      <c r="D123" t="n">
+        <v>4.485</v>
+      </c>
+      <c r="E123" t="n">
+        <v>4.475</v>
+      </c>
+      <c r="F123" t="n">
+        <v>5002</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-4344733.18128075</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>4.506</v>
+      </c>
+      <c r="C124" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="D124" t="n">
+        <v>4.506</v>
+      </c>
+      <c r="E124" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="F124" t="n">
+        <v>10001</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-4354734.18128075</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
         <v>4.5</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C125" t="n">
+        <v>4.506</v>
+      </c>
+      <c r="D125" t="n">
+        <v>4.506</v>
+      </c>
+      <c r="E125" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F125" t="n">
+        <v>2611</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-4352123.18128075</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>4.485</v>
+      </c>
+      <c r="C126" t="n">
         <v>4.45</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D126" t="n">
+        <v>4.485</v>
+      </c>
+      <c r="E126" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="F126" t="n">
+        <v>4997</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-4357120.18128075</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>4.506</v>
+      </c>
+      <c r="C127" t="n">
+        <v>4.506</v>
+      </c>
+      <c r="D127" t="n">
+        <v>4.506</v>
+      </c>
+      <c r="E127" t="n">
+        <v>4.506</v>
+      </c>
+      <c r="F127" t="n">
+        <v>997.742</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-4356122.43928075</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
         <v>4.5</v>
       </c>
-      <c r="E106" t="n">
+      <c r="C128" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D128" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E128" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1497.75</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-4357620.18928075</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>4.506</v>
+      </c>
+      <c r="C129" t="n">
+        <v>4.506</v>
+      </c>
+      <c r="D129" t="n">
+        <v>4.506</v>
+      </c>
+      <c r="E129" t="n">
+        <v>4.506</v>
+      </c>
+      <c r="F129" t="n">
+        <v>113</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-4357507.18928075</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C130" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D130" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E130" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F130" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-4357509.43928075</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>4.499</v>
+      </c>
+      <c r="C131" t="n">
+        <v>4.499</v>
+      </c>
+      <c r="D131" t="n">
+        <v>4.499</v>
+      </c>
+      <c r="E131" t="n">
+        <v>4.499</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1967.5793</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-4359477.018580751</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>4.499</v>
+      </c>
+      <c r="C132" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D132" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E132" t="n">
+        <v>4.499</v>
+      </c>
+      <c r="F132" t="n">
+        <v>183783.315</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-4175693.703580751</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>4.507</v>
+      </c>
+      <c r="C133" t="n">
+        <v>4.507</v>
+      </c>
+      <c r="D133" t="n">
+        <v>4.507</v>
+      </c>
+      <c r="E133" t="n">
+        <v>4.507</v>
+      </c>
+      <c r="F133" t="n">
+        <v>111</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-4175582.703580751</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>4.505</v>
+      </c>
+      <c r="C134" t="n">
+        <v>4.507</v>
+      </c>
+      <c r="D134" t="n">
+        <v>4.507</v>
+      </c>
+      <c r="E134" t="n">
+        <v>4.411</v>
+      </c>
+      <c r="F134" t="n">
+        <v>68113</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-4175582.703580751</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C135" t="n">
         <v>4.45</v>
       </c>
-      <c r="F106" t="n">
+      <c r="D135" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E135" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="F135" t="n">
         <v>22500</v>
       </c>
-      <c r="G106" t="n">
+      <c r="G135" t="n">
         <v>-4198082.70358075</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="L106" t="inlineStr">
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-19 BackTest XVG.xlsx
+++ b/BackTest/2020-01-19 BackTest XVG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-271177.5985</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-30536.88479999997</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.495</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.495</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-25536.88479999997</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4.505</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.495</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -565,14 +553,8 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>4.495</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -667,7 +649,7 @@
         <v>-98426.31419999996</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -700,7 +682,7 @@
         <v>-93315.52309999996</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -766,7 +748,7 @@
         <v>-717884.9641</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -799,7 +781,7 @@
         <v>-1342454.405</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -832,7 +814,7 @@
         <v>-1342342.5481</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -865,7 +847,7 @@
         <v>-1342342.5481</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -898,7 +880,7 @@
         <v>-1339842.5481</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -931,7 +913,7 @@
         <v>-1347845.548</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -964,7 +946,7 @@
         <v>-1347735.0507</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -997,7 +979,7 @@
         <v>-1347735.0507</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1030,7 +1012,7 @@
         <v>-1281926.548</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1063,7 +1045,7 @@
         <v>-1289307.8316</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1096,7 +1078,7 @@
         <v>-1289197.3831</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1129,7 +1111,7 @@
         <v>-1282168.9978</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1162,7 +1144,7 @@
         <v>-1294666.9978</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1195,7 +1177,7 @@
         <v>-1294555.9978</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1228,7 +1210,7 @@
         <v>-1414844.6969</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1261,7 +1243,7 @@
         <v>-1387559.0133</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1294,7 +1276,7 @@
         <v>-1787559.0133</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1327,7 +1309,7 @@
         <v>-1685559.0133</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1360,7 +1342,7 @@
         <v>-1709259.60506064</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1393,7 +1375,7 @@
         <v>-1790681.00678515</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1426,7 +1408,7 @@
         <v>-1813119.86378515</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1459,7 +1441,7 @@
         <v>-1795032.48998515</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1492,7 +1474,7 @@
         <v>-2204675.40478515</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1525,7 +1507,7 @@
         <v>-1270901.83128515</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1558,7 +1540,7 @@
         <v>-1487896.58838515</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1591,7 +1573,7 @@
         <v>-1487784.58838515</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1624,7 +1606,7 @@
         <v>-1487784.58838515</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1657,7 +1639,7 @@
         <v>-1446744.70428515</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1690,7 +1672,7 @@
         <v>-1407885.82788515</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1723,7 +1705,7 @@
         <v>-1370969.895285151</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1756,7 +1738,7 @@
         <v>-1406047.36228515</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1789,7 +1771,7 @@
         <v>-1431683.36218515</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1855,7 +1837,7 @@
         <v>-1366723.67058515</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1888,7 +1870,7 @@
         <v>-1353942.83358075</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1921,7 +1903,7 @@
         <v>-1337126.65768075</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1954,7 +1936,7 @@
         <v>-1337126.65768075</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1987,7 +1969,7 @@
         <v>-1291013.85888075</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2020,7 +2002,7 @@
         <v>-1291013.85888075</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2053,7 +2035,7 @@
         <v>-1311013.85888075</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2086,7 +2068,7 @@
         <v>-1310903.96868075</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2119,7 +2101,7 @@
         <v>-1310903.96868075</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2152,7 +2134,7 @@
         <v>-1342252.96868075</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2185,7 +2167,7 @@
         <v>-1222252.96868075</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2218,7 +2200,7 @@
         <v>-1277056.40988075</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2251,7 +2233,7 @@
         <v>-1277056.40988075</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2284,7 +2266,7 @@
         <v>-1173239.72348075</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2317,7 +2299,7 @@
         <v>-1111736.86008075</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2350,7 +2332,7 @@
         <v>-1112865.87528075</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2383,7 +2365,7 @@
         <v>-1138501.87528075</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2416,7 +2398,7 @@
         <v>-1138391.87528075</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2449,7 +2431,7 @@
         <v>-1114818.65938075</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2482,7 +2464,7 @@
         <v>-1084670.79508075</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2515,7 +2497,7 @@
         <v>-1084670.79508075</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2548,7 +2530,7 @@
         <v>-1125957.20618075</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2581,7 +2563,7 @@
         <v>-1125847.20618075</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2614,7 +2596,7 @@
         <v>-1125847.20618075</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2647,7 +2629,7 @@
         <v>-1133292.20618075</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2680,7 +2662,7 @@
         <v>-1133182.58108075</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2713,7 +2695,7 @@
         <v>-1497182.58108075</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2746,7 +2728,7 @@
         <v>-2777891.815680751</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2779,7 +2761,7 @@
         <v>-2424378.314280751</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2812,7 +2794,7 @@
         <v>-2424266.314280751</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2845,7 +2827,7 @@
         <v>-2597756.75548075</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2878,7 +2860,7 @@
         <v>-2592756.75548075</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2911,7 +2893,7 @@
         <v>-2592756.75548075</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2944,7 +2926,7 @@
         <v>-2592556.75548075</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2977,7 +2959,7 @@
         <v>-2595053.01548075</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3010,7 +2992,7 @@
         <v>-2594942.01548075</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3043,7 +3025,7 @@
         <v>-2594945.75548075</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3076,7 +3058,7 @@
         <v>-2593155.81038075</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3109,7 +3091,7 @@
         <v>-2595748.46948075</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3175,7 +3157,7 @@
         <v>-2610637.46948075</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3208,7 +3190,7 @@
         <v>-2610526.46948075</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3241,7 +3223,7 @@
         <v>-2850025.77078075</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3274,7 +3256,7 @@
         <v>-2850378.19188075</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3307,7 +3289,7 @@
         <v>-2850378.19188075</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3340,7 +3322,7 @@
         <v>-2850378.19188075</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3373,7 +3355,7 @@
         <v>-2850266.19188075</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3406,7 +3388,7 @@
         <v>-2850266.19188075</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3439,7 +3421,7 @@
         <v>-2850266.19188075</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -4297,14 +4279,10 @@
         <v>-4220801.34138075</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="n">
-        <v>4.403</v>
-      </c>
-      <c r="J118" t="n">
-        <v>4.403</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
@@ -4337,14 +4315,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>4.403</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4376,14 +4348,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>4.403</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4412,14 +4378,10 @@
         <v>-4338211.025280749</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
-      </c>
-      <c r="I121" t="n">
-        <v>4.425</v>
-      </c>
-      <c r="J121" t="n">
-        <v>4.425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
@@ -4452,14 +4414,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>4.425</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4491,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>4.425</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4791,11 +4741,17 @@
         <v>-4175693.703580751</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>4.499</v>
+      </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4824,11 +4780,17 @@
         <v>-4175582.703580751</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>4.5</v>
+      </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4857,11 +4819,17 @@
         <v>-4175582.703580751</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>4.507</v>
+      </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4890,17 +4858,23 @@
         <v>-4198082.70358075</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>4.507</v>
+      </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
       <c r="M135" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest XVG.xlsx
+++ b/BackTest/2020-01-19 BackTest XVG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-271177.5985</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-30536.88479999997</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-25536.88479999997</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-20426.31419999997</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-22926.31419999997</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-98426.31419999996</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-93315.52309999996</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-717884.9641</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-1342454.405</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-1342342.5481</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-1342342.5481</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-1339842.5481</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-1347845.548</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-1347735.0507</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-1347735.0507</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-1281926.548</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-1289307.8316</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-1289197.3831</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-1282168.9978</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-1294666.9978</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-1294555.9978</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-1414844.6969</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-1387559.0133</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-1787559.0133</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-1685559.0133</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-1709259.60506064</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-1790681.00678515</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-1813119.86378515</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-1795032.48998515</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-2204675.40478515</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-1270901.83128515</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-1487896.58838515</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-1487784.58838515</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-1487784.58838515</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-1446744.70428515</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-1407885.82788515</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-1370969.895285151</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-1406047.36228515</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-1431683.36218515</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-1366723.67058515</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-1353942.83358075</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-1337126.65768075</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-1337126.65768075</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-1291013.85888075</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-1291013.85888075</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-1311013.85888075</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-1310903.96868075</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-1342252.96868075</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-1222252.96868075</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-1277056.40988075</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-1277056.40988075</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-1173239.72348075</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-1111736.86008075</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-1112865.87528075</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-1138501.87528075</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-1138391.87528075</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-1114818.65938075</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-1084670.79508075</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-1084670.79508075</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-1125957.20618075</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-1125847.20618075</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-1125847.20618075</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-1133292.20618075</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-1133182.58108075</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-1497182.58108075</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-2777891.815680751</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-2424378.314280751</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-2424266.314280751</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-2597756.75548075</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-2592756.75548075</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-2592756.75548075</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-2592556.75548075</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-2595053.01548075</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-2594942.01548075</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-2594945.75548075</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-2593155.81038075</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-2595748.46948075</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-2610637.46948075</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-2610526.46948075</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-2850025.77078075</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-2850378.19188075</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-2850378.19188075</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-2850378.19188075</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-2850266.19188075</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-2850266.19188075</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-2850266.19188075</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -4279,10 +4279,14 @@
         <v>-4220801.34138075</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>4.403</v>
+      </c>
+      <c r="J118" t="n">
+        <v>4.403</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
@@ -4315,8 +4319,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>4.403</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4348,8 +4358,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>4.403</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4444,7 +4460,7 @@
         <v>-4344733.18128075</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4741,140 +4757,122 @@
         <v>-4175693.703580751</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>4.499</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>4.507</v>
+      </c>
+      <c r="C133" t="n">
+        <v>4.507</v>
+      </c>
+      <c r="D133" t="n">
+        <v>4.507</v>
+      </c>
+      <c r="E133" t="n">
+        <v>4.507</v>
+      </c>
+      <c r="F133" t="n">
+        <v>111</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-4175582.703580751</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>4.505</v>
+      </c>
+      <c r="C134" t="n">
+        <v>4.507</v>
+      </c>
+      <c r="D134" t="n">
+        <v>4.507</v>
+      </c>
+      <c r="E134" t="n">
+        <v>4.411</v>
+      </c>
+      <c r="F134" t="n">
+        <v>68113</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-4175582.703580751</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C135" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="D135" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E135" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="F135" t="n">
+        <v>22500</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-4198082.70358075</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>4.507</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>4.507</v>
-      </c>
-      <c r="C133" t="n">
-        <v>4.507</v>
-      </c>
-      <c r="D133" t="n">
-        <v>4.507</v>
-      </c>
-      <c r="E133" t="n">
-        <v>4.507</v>
-      </c>
-      <c r="F133" t="n">
-        <v>111</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-4175582.703580751</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>4.505</v>
-      </c>
-      <c r="C134" t="n">
-        <v>4.507</v>
-      </c>
-      <c r="D134" t="n">
-        <v>4.507</v>
-      </c>
-      <c r="E134" t="n">
-        <v>4.411</v>
-      </c>
-      <c r="F134" t="n">
-        <v>68113</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-4175582.703580751</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>4.507</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C135" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="D135" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E135" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="F135" t="n">
-        <v>22500</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-4198082.70358075</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>4.507</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
       <c r="M135" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest XVG.xlsx
+++ b/BackTest/2020-01-19 BackTest XVG.xlsx
@@ -451,7 +451,7 @@
         <v>-271177.5985</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-30536.88479999997</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-25536.88479999997</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-20426.31419999997</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-22926.31419999997</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-1291013.85888075</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-1291013.85888075</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-1342252.96868075</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-1222252.96868075</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-1277056.40988075</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-1277056.40988075</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-1173239.72348075</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-1111736.86008075</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-1112865.87528075</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-1138501.87528075</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-1138391.87528075</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-1114818.65938075</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-1084670.79508075</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-1084670.79508075</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-1125957.20618075</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-1125847.20618075</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-1125847.20618075</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-1133292.20618075</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-1133182.58108075</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-1497182.58108075</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-2777891.815680751</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3916,11 +3916,17 @@
         <v>-4091827.75298075</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>4.407</v>
+      </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3949,11 +3955,17 @@
         <v>-3759523.08808075</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>4.425</v>
+      </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3986,7 +3998,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4019,7 +4035,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4052,7 +4072,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4085,7 +4109,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4118,7 +4146,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4151,7 +4183,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4184,7 +4220,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4217,7 +4257,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4250,7 +4294,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4284,10 +4332,12 @@
       <c r="I118" t="n">
         <v>4.403</v>
       </c>
-      <c r="J118" t="n">
-        <v>4.403</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4319,12 +4369,10 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>4.403</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L119" t="n">
@@ -4358,12 +4406,10 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>4.403</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L120" t="n">
@@ -4398,7 +4444,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4431,7 +4481,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4460,11 +4514,15 @@
         <v>-4344733.18128075</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4497,7 +4555,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4526,11 +4588,17 @@
         <v>-4352123.18128075</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>4.45</v>
+      </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4559,11 +4627,17 @@
         <v>-4357120.18128075</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>4.506</v>
+      </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4592,11 +4666,17 @@
         <v>-4356122.43928075</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>4.45</v>
+      </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4625,11 +4705,17 @@
         <v>-4357620.18928075</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>4.506</v>
+      </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4662,7 +4748,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4691,11 +4781,17 @@
         <v>-4357509.43928075</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>4.506</v>
+      </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4724,11 +4820,17 @@
         <v>-4359477.018580751</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>4.5</v>
+      </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4757,11 +4859,17 @@
         <v>-4175693.703580751</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>4.499</v>
+      </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4790,11 +4898,17 @@
         <v>-4175582.703580751</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>4.5</v>
+      </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4823,11 +4937,17 @@
         <v>-4175582.703580751</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>4.507</v>
+      </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4864,7 +4984,7 @@
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L135" t="n">

--- a/BackTest/2020-01-19 BackTest XVG.xlsx
+++ b/BackTest/2020-01-19 BackTest XVG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M135"/>
+  <dimension ref="A1:L135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>96280</v>
       </c>
       <c r="G2" t="n">
-        <v>-271177.5985</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>240640.7137</v>
       </c>
       <c r="G3" t="n">
-        <v>-30536.88479999997</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>5000</v>
       </c>
       <c r="G4" t="n">
-        <v>-25536.88479999997</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>5110.5706</v>
       </c>
       <c r="G5" t="n">
-        <v>-20426.31419999997</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>2500</v>
       </c>
       <c r="G6" t="n">
-        <v>-22926.31419999997</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>2500</v>
       </c>
       <c r="G7" t="n">
-        <v>-20426.31419999997</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>78000</v>
       </c>
       <c r="G8" t="n">
-        <v>-98426.31419999996</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>5110.7911</v>
       </c>
       <c r="G9" t="n">
-        <v>-93315.52309999996</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>624569.441</v>
       </c>
       <c r="G10" t="n">
-        <v>-717884.9641</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>5269.1232</v>
       </c>
       <c r="G11" t="n">
-        <v>-717884.9641</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>624569.4409</v>
       </c>
       <c r="G12" t="n">
-        <v>-1342454.405</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,21 @@
         <v>111.8569</v>
       </c>
       <c r="G13" t="n">
-        <v>-1342342.5481</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>4.47</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +809,21 @@
         <v>2500</v>
       </c>
       <c r="G14" t="n">
-        <v>-1342342.5481</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>4.515</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +845,19 @@
         <v>2500</v>
       </c>
       <c r="G15" t="n">
-        <v>-1339842.5481</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +879,19 @@
         <v>8002.9999</v>
       </c>
       <c r="G16" t="n">
-        <v>-1347845.548</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +913,19 @@
         <v>110.4973</v>
       </c>
       <c r="G17" t="n">
-        <v>-1347735.0507</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +947,19 @@
         <v>2500</v>
       </c>
       <c r="G18" t="n">
-        <v>-1347735.0507</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +981,19 @@
         <v>65808.5027</v>
       </c>
       <c r="G19" t="n">
-        <v>-1281926.548</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1015,19 @@
         <v>7381.2836</v>
       </c>
       <c r="G20" t="n">
-        <v>-1289307.8316</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1049,19 @@
         <v>110.4485</v>
       </c>
       <c r="G21" t="n">
-        <v>-1289197.3831</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1083,19 @@
         <v>7028.3853</v>
       </c>
       <c r="G22" t="n">
-        <v>-1282168.9978</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1117,19 @@
         <v>12498</v>
       </c>
       <c r="G23" t="n">
-        <v>-1294666.9978</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1151,19 @@
         <v>111</v>
       </c>
       <c r="G24" t="n">
-        <v>-1294555.9978</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1185,19 @@
         <v>120288.6991</v>
       </c>
       <c r="G25" t="n">
-        <v>-1414844.6969</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1219,19 @@
         <v>27285.6836</v>
       </c>
       <c r="G26" t="n">
-        <v>-1387559.0133</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1253,19 @@
         <v>400000</v>
       </c>
       <c r="G27" t="n">
-        <v>-1787559.0133</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1287,19 @@
         <v>102000</v>
       </c>
       <c r="G28" t="n">
-        <v>-1685559.0133</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1321,19 @@
         <v>23700.59176064</v>
       </c>
       <c r="G29" t="n">
-        <v>-1709259.60506064</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1355,19 @@
         <v>81421.40172451</v>
       </c>
       <c r="G30" t="n">
-        <v>-1790681.00678515</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1389,19 @@
         <v>22438.857</v>
       </c>
       <c r="G31" t="n">
-        <v>-1813119.86378515</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1423,21 @@
         <v>18087.3738</v>
       </c>
       <c r="G32" t="n">
-        <v>-1795032.48998515</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>4.48</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1459,21 @@
         <v>409642.9148</v>
       </c>
       <c r="G33" t="n">
-        <v>-2204675.40478515</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>4.52</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1495,21 @@
         <v>933773.5735000001</v>
       </c>
       <c r="G34" t="n">
-        <v>-1270901.83128515</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>4.463</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1531,21 @@
         <v>216994.7571</v>
       </c>
       <c r="G35" t="n">
-        <v>-1487896.58838515</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>4.517</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1567,21 @@
         <v>112</v>
       </c>
       <c r="G36" t="n">
-        <v>-1487784.58838515</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>4.462</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1603,19 @@
         <v>168661.6999</v>
       </c>
       <c r="G37" t="n">
-        <v>-1487784.58838515</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1637,19 @@
         <v>41039.8841</v>
       </c>
       <c r="G38" t="n">
-        <v>-1446744.70428515</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1671,19 @@
         <v>38858.8764</v>
       </c>
       <c r="G39" t="n">
-        <v>-1407885.82788515</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1705,19 @@
         <v>36915.9326</v>
       </c>
       <c r="G40" t="n">
-        <v>-1370969.895285151</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1739,19 @@
         <v>35077.467</v>
       </c>
       <c r="G41" t="n">
-        <v>-1406047.36228515</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1773,19 @@
         <v>25635.9999</v>
       </c>
       <c r="G42" t="n">
-        <v>-1431683.36218515</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1807,19 @@
         <v>33316.2422</v>
       </c>
       <c r="G43" t="n">
-        <v>-1398367.11998515</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1841,19 @@
         <v>31643.4494</v>
       </c>
       <c r="G44" t="n">
-        <v>-1366723.67058515</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1875,21 @@
         <v>12780.8370044</v>
       </c>
       <c r="G45" t="n">
-        <v>-1353942.83358075</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>4.534</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1911,19 @@
         <v>16816.1759</v>
       </c>
       <c r="G46" t="n">
-        <v>-1337126.65768075</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1945,19 @@
         <v>24796.2554956</v>
       </c>
       <c r="G47" t="n">
-        <v>-1337126.65768075</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1979,19 @@
         <v>46112.7988</v>
       </c>
       <c r="G48" t="n">
-        <v>-1291013.85888075</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +2013,19 @@
         <v>30000</v>
       </c>
       <c r="G49" t="n">
-        <v>-1291013.85888075</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2047,19 @@
         <v>20000</v>
       </c>
       <c r="G50" t="n">
-        <v>-1311013.85888075</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2081,19 @@
         <v>109.8902</v>
       </c>
       <c r="G51" t="n">
-        <v>-1310903.96868075</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2115,19 @@
         <v>5000</v>
       </c>
       <c r="G52" t="n">
-        <v>-1310903.96868075</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2149,17 @@
         <v>31349</v>
       </c>
       <c r="G53" t="n">
-        <v>-1342252.96868075</v>
-      </c>
-      <c r="H53" t="n">
         <v>2</v>
       </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2181,15 @@
         <v>120000</v>
       </c>
       <c r="G54" t="n">
-        <v>-1222252.96868075</v>
-      </c>
-      <c r="H54" t="n">
         <v>2</v>
       </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2211,15 @@
         <v>54803.4412</v>
       </c>
       <c r="G55" t="n">
-        <v>-1277056.40988075</v>
-      </c>
-      <c r="H55" t="n">
         <v>2</v>
       </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2241,15 @@
         <v>35729</v>
       </c>
       <c r="G56" t="n">
-        <v>-1277056.40988075</v>
-      </c>
-      <c r="H56" t="n">
         <v>2</v>
       </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2271,15 @@
         <v>103816.6864</v>
       </c>
       <c r="G57" t="n">
-        <v>-1173239.72348075</v>
-      </c>
-      <c r="H57" t="n">
         <v>2</v>
       </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2301,15 @@
         <v>61502.8634</v>
       </c>
       <c r="G58" t="n">
-        <v>-1111736.86008075</v>
-      </c>
-      <c r="H58" t="n">
         <v>2</v>
       </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2331,15 @@
         <v>1129.0152</v>
       </c>
       <c r="G59" t="n">
-        <v>-1112865.87528075</v>
-      </c>
-      <c r="H59" t="n">
         <v>2</v>
       </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2361,15 @@
         <v>25636</v>
       </c>
       <c r="G60" t="n">
-        <v>-1138501.87528075</v>
-      </c>
-      <c r="H60" t="n">
         <v>2</v>
       </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2391,15 @@
         <v>110</v>
       </c>
       <c r="G61" t="n">
-        <v>-1138391.87528075</v>
-      </c>
-      <c r="H61" t="n">
         <v>2</v>
       </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2421,15 @@
         <v>23573.2159</v>
       </c>
       <c r="G62" t="n">
-        <v>-1114818.65938075</v>
-      </c>
-      <c r="H62" t="n">
         <v>2</v>
       </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2451,15 @@
         <v>30147.8643</v>
       </c>
       <c r="G63" t="n">
-        <v>-1084670.79508075</v>
-      </c>
-      <c r="H63" t="n">
         <v>2</v>
       </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2481,15 @@
         <v>1532.7349</v>
       </c>
       <c r="G64" t="n">
-        <v>-1084670.79508075</v>
-      </c>
-      <c r="H64" t="n">
         <v>2</v>
       </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2511,15 @@
         <v>41286.4111</v>
       </c>
       <c r="G65" t="n">
-        <v>-1125957.20618075</v>
-      </c>
-      <c r="H65" t="n">
         <v>2</v>
       </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2541,15 @@
         <v>110</v>
       </c>
       <c r="G66" t="n">
-        <v>-1125847.20618075</v>
-      </c>
-      <c r="H66" t="n">
         <v>2</v>
       </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2571,15 @@
         <v>41019.93108738</v>
       </c>
       <c r="G67" t="n">
-        <v>-1125847.20618075</v>
-      </c>
-      <c r="H67" t="n">
         <v>2</v>
       </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2601,15 @@
         <v>7445</v>
       </c>
       <c r="G68" t="n">
-        <v>-1133292.20618075</v>
-      </c>
-      <c r="H68" t="n">
         <v>2</v>
       </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2631,15 @@
         <v>109.6251</v>
       </c>
       <c r="G69" t="n">
-        <v>-1133182.58108075</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2661,15 @@
         <v>364000</v>
       </c>
       <c r="G70" t="n">
-        <v>-1497182.58108075</v>
-      </c>
-      <c r="H70" t="n">
         <v>2</v>
       </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2691,15 @@
         <v>1280709.2346</v>
       </c>
       <c r="G71" t="n">
-        <v>-2777891.815680751</v>
-      </c>
-      <c r="H71" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2721,15 @@
         <v>353513.5014</v>
       </c>
       <c r="G72" t="n">
-        <v>-2424378.314280751</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2751,15 @@
         <v>112</v>
       </c>
       <c r="G73" t="n">
-        <v>-2424266.314280751</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2781,15 @@
         <v>173490.4412</v>
       </c>
       <c r="G74" t="n">
-        <v>-2597756.75548075</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2811,15 @@
         <v>5000</v>
       </c>
       <c r="G75" t="n">
-        <v>-2592756.75548075</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2841,15 @@
         <v>5000</v>
       </c>
       <c r="G76" t="n">
-        <v>-2592756.75548075</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2871,15 @@
         <v>200</v>
       </c>
       <c r="G77" t="n">
-        <v>-2592556.75548075</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2901,15 @@
         <v>2496.26</v>
       </c>
       <c r="G78" t="n">
-        <v>-2595053.01548075</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2931,15 @@
         <v>111</v>
       </c>
       <c r="G79" t="n">
-        <v>-2594942.01548075</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2961,15 @@
         <v>3.74</v>
       </c>
       <c r="G80" t="n">
-        <v>-2594945.75548075</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2991,15 @@
         <v>1789.9451</v>
       </c>
       <c r="G81" t="n">
-        <v>-2593155.81038075</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3021,15 @@
         <v>2592.6591</v>
       </c>
       <c r="G82" t="n">
-        <v>-2595748.46948075</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3051,15 @@
         <v>111</v>
       </c>
       <c r="G83" t="n">
-        <v>-2595637.46948075</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3081,15 @@
         <v>15000</v>
       </c>
       <c r="G84" t="n">
-        <v>-2610637.46948075</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3111,15 @@
         <v>111</v>
       </c>
       <c r="G85" t="n">
-        <v>-2610526.46948075</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3141,15 @@
         <v>239499.3013</v>
       </c>
       <c r="G86" t="n">
-        <v>-2850025.77078075</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3171,15 @@
         <v>352.4211</v>
       </c>
       <c r="G87" t="n">
-        <v>-2850378.19188075</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3201,19 @@
         <v>48142</v>
       </c>
       <c r="G88" t="n">
-        <v>-2850378.19188075</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>4.45</v>
+      </c>
+      <c r="I88" t="n">
+        <v>4.45</v>
+      </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3235,23 @@
         <v>108398.2532</v>
       </c>
       <c r="G89" t="n">
-        <v>-2850378.19188075</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>4.45</v>
+      </c>
+      <c r="I89" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3273,23 @@
         <v>112</v>
       </c>
       <c r="G90" t="n">
-        <v>-2850266.19188075</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>4.45</v>
+      </c>
+      <c r="I90" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3311,15 @@
         <v>922137.1779</v>
       </c>
       <c r="G91" t="n">
-        <v>-2850266.19188075</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3341,15 @@
         <v>325444.5753</v>
       </c>
       <c r="G92" t="n">
-        <v>-2850266.19188075</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3371,15 @@
         <v>755645.9772</v>
       </c>
       <c r="G93" t="n">
-        <v>-3605912.16908075</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3401,15 @@
         <v>5000</v>
       </c>
       <c r="G94" t="n">
-        <v>-3610912.16908075</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3431,15 @@
         <v>112</v>
       </c>
       <c r="G95" t="n">
-        <v>-3610800.16908075</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3461,15 @@
         <v>15000</v>
       </c>
       <c r="G96" t="n">
-        <v>-3625800.16908075</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3491,15 @@
         <v>8930.876700000001</v>
       </c>
       <c r="G97" t="n">
-        <v>-3634731.04578075</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3521,15 @@
         <v>112</v>
       </c>
       <c r="G98" t="n">
-        <v>-3634619.04578075</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3551,15 @@
         <v>10000</v>
       </c>
       <c r="G99" t="n">
-        <v>-3634619.04578075</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3581,15 @@
         <v>113397.1579</v>
       </c>
       <c r="G100" t="n">
-        <v>-3748016.20368075</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3611,15 @@
         <v>112</v>
       </c>
       <c r="G101" t="n">
-        <v>-3747904.20368075</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3641,15 @@
         <v>245209.2749</v>
       </c>
       <c r="G102" t="n">
-        <v>-3993113.47858075</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3671,15 @@
         <v>25000</v>
       </c>
       <c r="G103" t="n">
-        <v>-3993113.47858075</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3701,15 @@
         <v>53900</v>
       </c>
       <c r="G104" t="n">
-        <v>-4047013.47858075</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3731,19 @@
         <v>25000</v>
       </c>
       <c r="G105" t="n">
-        <v>-4072013.47858075</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>4.426</v>
+      </c>
+      <c r="I105" t="n">
+        <v>4.426</v>
+      </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3765,21 @@
         <v>110000</v>
       </c>
       <c r="G106" t="n">
-        <v>-4182013.47858075</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>4.426</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,24 +3801,23 @@
         <v>90185.72560000001</v>
       </c>
       <c r="G107" t="n">
-        <v>-4091827.75298075</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>4.407</v>
       </c>
       <c r="I107" t="n">
-        <v>4.407</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>4.426</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3952,24 +3839,23 @@
         <v>332304.6649</v>
       </c>
       <c r="G108" t="n">
-        <v>-3759523.08808075</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>4.425</v>
       </c>
       <c r="I108" t="n">
-        <v>4.425</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>4.426</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3991,22 +3877,21 @@
         <v>116.3415</v>
       </c>
       <c r="G109" t="n">
-        <v>-3759523.08808075</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>4.426</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4028,22 +3913,21 @@
         <v>103420.5807</v>
       </c>
       <c r="G110" t="n">
-        <v>-3862943.66878075</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>4.426</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4065,22 +3949,21 @@
         <v>100000</v>
       </c>
       <c r="G111" t="n">
-        <v>-3962943.66878075</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>4.426</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4102,22 +3985,21 @@
         <v>100000</v>
       </c>
       <c r="G112" t="n">
-        <v>-3962943.66878075</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>4.426</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4139,22 +4021,23 @@
         <v>113</v>
       </c>
       <c r="G113" t="n">
-        <v>-3962830.66878075</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>4.401</v>
+      </c>
+      <c r="I113" t="n">
+        <v>4.426</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4176,22 +4059,21 @@
         <v>113</v>
       </c>
       <c r="G114" t="n">
-        <v>-3962717.66878075</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>4.426</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4213,22 +4095,21 @@
         <v>9113</v>
       </c>
       <c r="G115" t="n">
-        <v>-3962717.66878075</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>4.426</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4250,22 +4131,21 @@
         <v>5000</v>
       </c>
       <c r="G116" t="n">
-        <v>-3962717.66878075</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>4.426</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4287,22 +4167,21 @@
         <v>258196.6726</v>
       </c>
       <c r="G117" t="n">
-        <v>-4220914.34138075</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>4.426</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4324,24 +4203,21 @@
         <v>113</v>
       </c>
       <c r="G118" t="n">
-        <v>-4220801.34138075</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="n">
-        <v>4.403</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>4.426</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4363,22 +4239,21 @@
         <v>15000</v>
       </c>
       <c r="G119" t="n">
-        <v>-4220801.34138075</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>4.426</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4400,22 +4275,21 @@
         <v>118764.8164</v>
       </c>
       <c r="G120" t="n">
-        <v>-4339566.15778075</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>4.426</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4437,22 +4311,21 @@
         <v>1355.1325</v>
       </c>
       <c r="G121" t="n">
-        <v>-4338211.025280749</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>4.426</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4474,22 +4347,21 @@
         <v>1520.156</v>
       </c>
       <c r="G122" t="n">
-        <v>-4339731.18128075</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>4.426</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4511,22 +4383,21 @@
         <v>5002</v>
       </c>
       <c r="G123" t="n">
-        <v>-4344733.18128075</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>4.426</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4548,22 +4419,21 @@
         <v>10001</v>
       </c>
       <c r="G124" t="n">
-        <v>-4354734.18128075</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>4.426</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4585,24 +4455,21 @@
         <v>2611</v>
       </c>
       <c r="G125" t="n">
-        <v>-4352123.18128075</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>4.426</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4624,24 +4491,21 @@
         <v>4997</v>
       </c>
       <c r="G126" t="n">
-        <v>-4357120.18128075</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="n">
-        <v>4.506</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>4.426</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4663,24 +4527,21 @@
         <v>997.742</v>
       </c>
       <c r="G127" t="n">
-        <v>-4356122.43928075</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>4.426</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4702,24 +4563,21 @@
         <v>1497.75</v>
       </c>
       <c r="G128" t="n">
-        <v>-4357620.18928075</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="n">
-        <v>4.506</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>4.426</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4741,22 +4599,21 @@
         <v>113</v>
       </c>
       <c r="G129" t="n">
-        <v>-4357507.18928075</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>4.426</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4778,24 +4635,21 @@
         <v>2.25</v>
       </c>
       <c r="G130" t="n">
-        <v>-4357509.43928075</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="n">
-        <v>4.506</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>4.426</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4817,24 +4671,21 @@
         <v>1967.5793</v>
       </c>
       <c r="G131" t="n">
-        <v>-4359477.018580751</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>4.426</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4856,24 +4707,21 @@
         <v>183783.315</v>
       </c>
       <c r="G132" t="n">
-        <v>-4175693.703580751</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="n">
-        <v>4.499</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>4.426</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4895,24 +4743,21 @@
         <v>111</v>
       </c>
       <c r="G133" t="n">
-        <v>-4175582.703580751</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>4.426</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4934,24 +4779,21 @@
         <v>68113</v>
       </c>
       <c r="G134" t="n">
-        <v>-4175582.703580751</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="n">
-        <v>4.507</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>4.426</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4973,24 +4815,21 @@
         <v>22500</v>
       </c>
       <c r="G135" t="n">
-        <v>-4198082.70358075</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="n">
-        <v>4.507</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>4.426</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
